--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,184 +674,235 @@
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>78900</v>
+        <v>75800</v>
       </c>
       <c r="E8" s="3">
-        <v>80500</v>
+        <v>77900</v>
       </c>
       <c r="F8" s="3">
-        <v>77400</v>
+        <v>76800</v>
       </c>
       <c r="G8" s="3">
+        <v>72900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>74300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>75800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K8" s="3">
         <v>65700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>85100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>73400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>68000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>65900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>72100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>63900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>60500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49800</v>
+        <v>45800</v>
       </c>
       <c r="E9" s="3">
-        <v>53000</v>
+        <v>49300</v>
       </c>
       <c r="F9" s="3">
-        <v>48600</v>
+        <v>47300</v>
       </c>
       <c r="G9" s="3">
+        <v>94500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>46900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>49900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K9" s="3">
         <v>39900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>57500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>48700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>43100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>40600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>46800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>41400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>38400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29200</v>
+        <v>30000</v>
       </c>
       <c r="E10" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="H10" s="3">
         <v>27500</v>
       </c>
-      <c r="F10" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K10" s="3">
         <v>25800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>27600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>24700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>24900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>25300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>25300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>22400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>22100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +918,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +963,20 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +1016,20 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,49 +1069,73 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5600</v>
+        <v>8600</v>
       </c>
       <c r="E15" s="3">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="G15" s="3">
-        <v>5400</v>
+        <v>6700</v>
       </c>
       <c r="H15" s="3">
         <v>5200</v>
       </c>
       <c r="I15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M15" s="3">
         <v>5600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1148,118 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>71900</v>
+        <v>69900</v>
       </c>
       <c r="E17" s="3">
-        <v>73600</v>
+        <v>71300</v>
       </c>
       <c r="F17" s="3">
-        <v>71300</v>
+        <v>69600</v>
       </c>
       <c r="G17" s="3">
+        <v>67900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>67700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K17" s="3">
         <v>60300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>79500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>68500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>64100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>62000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>65300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>59900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>57200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="E18" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6000</v>
-      </c>
       <c r="G18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1275,65 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
-        <v>-2500</v>
+        <v>-3300</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
       </c>
       <c r="G20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1373,20 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,10 +1397,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>3200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1250,80 +1409,104 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4300</v>
+        <v>2200</v>
       </c>
       <c r="E23" s="3">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="F23" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1340,8 +1523,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1349,8 +1532,20 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1585,126 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="F26" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="F27" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1744,20 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1797,20 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1850,20 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1903,126 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
       </c>
       <c r="G32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="F33" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +2062,131 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="F35" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2202,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2223,65 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>27200</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="3">
-        <v>16800</v>
+        <v>13700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>28000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>29500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,295 +2321,391 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>177800</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="3">
-        <v>176900</v>
+        <v>168400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="3">
+        <v>167400</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>166500</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>150400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>127100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>24100</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>15600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>11200</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>14600</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>240200</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="3">
-        <v>230800</v>
+        <v>210700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="3">
+        <v>226200</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>197500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>180400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2300</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>121200</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>101700</v>
+        <v>183400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3">
+        <v>114200</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>101300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>92200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>8100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>8200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>7800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2745,20 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2798,73 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>48000</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>40100</v>
+        <v>18400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="3">
+        <v>45200</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>34400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>33800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2904,73 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>420300</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="3">
-        <v>383500</v>
+        <v>424200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="3">
+        <v>395800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
+        <v>361100</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>343400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>315500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2986,12 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +3007,330 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>114400</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="3">
-        <v>116900</v>
+        <v>107100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H57" s="3">
+        <v>107700</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>110100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>103300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>87000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>69500</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>60400</v>
+        <v>68800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="3">
+        <v>65500</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>51700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>58700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>18700</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="3">
-        <v>24900</v>
+        <v>24400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>16500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>14800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>202700</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="3">
-        <v>202300</v>
+        <v>200400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="3">
+        <v>190800</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>190400</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>171500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>160400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>32300</v>
+        <v>64600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>44400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>29600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>24300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>19200</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>18800</v>
+        <v>14100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>15900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>12300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3370,20 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3423,20 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3476,73 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>269000</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="3">
+        <v>279100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
         <v>253300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
+        <v>238500</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>217000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>197000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3558,12 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3603,20 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3656,20 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3709,20 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3762,73 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-146500</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>-155100</v>
+        <v>-135300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H72" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-157800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-165500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3868,20 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3921,20 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3974,73 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>151300</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="3">
-        <v>130100</v>
+        <v>145100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H76" s="3">
+        <v>142500</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>126400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>118600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +4080,131 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4300</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="F81" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +4220,12 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +4318,20 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +4371,20 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4424,20 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4477,20 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4530,20 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +4583,20 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4612,12 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4710,20 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4763,20 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4816,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4845,12 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4890,20 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4943,20 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4996,20 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +5049,20 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +5102,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +5155,20 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75800</v>
+        <v>70800</v>
       </c>
       <c r="E8" s="3">
-        <v>77900</v>
+        <v>77300</v>
       </c>
       <c r="F8" s="3">
-        <v>76800</v>
+        <v>79400</v>
       </c>
       <c r="G8" s="3">
-        <v>72900</v>
+        <v>78200</v>
       </c>
       <c r="H8" s="3">
         <v>74300</v>
       </c>
       <c r="I8" s="3">
-        <v>75800</v>
+        <v>75700</v>
       </c>
       <c r="J8" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K8" s="3">
         <v>72800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>73400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>72100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>63900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>60500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>48200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>96200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>47800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K9" s="3">
         <v>45800</v>
       </c>
-      <c r="E9" s="3">
-        <v>49300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>47300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>94500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>46900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>49900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>45800</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G10" s="3">
         <v>30000</v>
       </c>
-      <c r="E10" s="3">
-        <v>28600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>29500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H10" s="3">
-        <v>27500</v>
+        <v>-21900</v>
       </c>
       <c r="I10" s="3">
-        <v>25900</v>
+        <v>28000</v>
       </c>
       <c r="J10" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K10" s="3">
         <v>27000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>25300</v>
       </c>
       <c r="P10" s="3">
         <v>25300</v>
       </c>
       <c r="Q10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="R10" s="3">
         <v>22400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="E15" s="3">
-        <v>8000</v>
+        <v>8800</v>
       </c>
       <c r="F15" s="3">
-        <v>7000</v>
+        <v>8100</v>
       </c>
       <c r="G15" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="P15" s="3">
         <v>6700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>6100</v>
       </c>
       <c r="Q15" s="3">
         <v>6100</v>
       </c>
       <c r="R15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S15" s="3">
         <v>6000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69900</v>
+        <v>64000</v>
       </c>
       <c r="E17" s="3">
-        <v>71300</v>
+        <v>71100</v>
       </c>
       <c r="F17" s="3">
-        <v>69600</v>
+        <v>72600</v>
       </c>
       <c r="G17" s="3">
-        <v>67900</v>
+        <v>70900</v>
       </c>
       <c r="H17" s="3">
-        <v>67700</v>
+        <v>69200</v>
       </c>
       <c r="I17" s="3">
-        <v>69300</v>
+        <v>69000</v>
       </c>
       <c r="J17" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K17" s="3">
         <v>67200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>57200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6000</v>
+        <v>6900</v>
       </c>
       <c r="E18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="F18" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3900</v>
       </c>
       <c r="O18" s="3">
         <v>3900</v>
       </c>
       <c r="P18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3700</v>
+        <v>-3300</v>
       </c>
       <c r="E20" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,121 +1436,127 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>3200</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="E23" s="3">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="F23" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="G23" s="3">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="H23" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="I23" s="3">
         <v>4100</v>
       </c>
       <c r="J23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1535,17 +1581,20 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
-        <v>2500</v>
-      </c>
       <c r="G26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H26" s="3">
         <v>2900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4000</v>
       </c>
       <c r="I26" s="3">
         <v>4100</v>
       </c>
       <c r="J26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2500</v>
       </c>
       <c r="P26" s="3">
         <v>2500</v>
       </c>
       <c r="Q26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
-        <v>2500</v>
-      </c>
       <c r="G27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H27" s="3">
         <v>2900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4000</v>
       </c>
       <c r="I27" s="3">
         <v>4100</v>
       </c>
       <c r="J27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2500</v>
       </c>
       <c r="P27" s="3">
         <v>2500</v>
       </c>
       <c r="Q27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="E32" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
-        <v>2500</v>
-      </c>
       <c r="G33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H33" s="3">
         <v>2900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4000</v>
       </c>
       <c r="I33" s="3">
         <v>4100</v>
       </c>
       <c r="J33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2500</v>
       </c>
       <c r="P33" s="3">
         <v>2500</v>
       </c>
       <c r="Q33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
-        <v>2500</v>
-      </c>
       <c r="G35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H35" s="3">
         <v>2900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4000</v>
       </c>
       <c r="I35" s="3">
         <v>4100</v>
       </c>
       <c r="J35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2500</v>
       </c>
       <c r="P35" s="3">
         <v>2500</v>
       </c>
       <c r="Q35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>25600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="E41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>28000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>29500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>168400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>167400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="E43" s="3">
+        <v>162800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>171600</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>170500</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>166500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>150400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>127100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,47 +2479,50 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="E44" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>21200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>15600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="E45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>13700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>210700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
-        <v>226200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="E46" s="3">
+        <v>224200</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>214700</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>230400</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>217300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>197500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>180400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,47 +2647,50 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>1400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2598,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>183400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>114200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="E48" s="3">
+        <v>211000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>186900</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>116300</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>95800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>101300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>92200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="E49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>8100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>8200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>7800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>45200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="E52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>37800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>34400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>33800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>424200</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>395800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="E54" s="3">
+        <v>461400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>432200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>403200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>361100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>343400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>315500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>107100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>107700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="E57" s="3">
+        <v>122200</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>109100</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>109800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>110100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>103300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>87000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,47 +3195,50 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>68800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>65500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="E58" s="3">
+        <v>80200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>70100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>66700</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>56900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>51700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>58700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>24400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="E59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>23500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>16500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>14800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
-        <v>190800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="E60" s="3">
+        <v>222300</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3">
+        <v>204100</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>194500</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>190400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>171500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>160400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,38 +3375,38 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>70200</v>
       </c>
       <c r="F61" s="3">
-        <v>64600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>65800</v>
       </c>
       <c r="H61" s="3">
-        <v>44400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>30400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>29600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>24300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>18100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="E62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>17700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>15900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>12300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>279100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>253300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="E66" s="3">
+        <v>308500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>284300</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
+        <v>258000</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>238500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>217000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>197000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-135300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="E72" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
         <v>-137900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-146000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-157800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-165500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>145100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
-        <v>142500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="E76" s="3">
+        <v>152900</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>147800</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>122500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>126400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>118600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
-        <v>2500</v>
-      </c>
       <c r="G81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H81" s="3">
         <v>2900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>4000</v>
       </c>
       <c r="I81" s="3">
         <v>4100</v>
       </c>
       <c r="J81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2500</v>
       </c>
       <c r="P81" s="3">
         <v>2500</v>
       </c>
       <c r="Q81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70800</v>
+        <v>71200</v>
       </c>
       <c r="E8" s="3">
-        <v>77300</v>
+        <v>77600</v>
       </c>
       <c r="F8" s="3">
-        <v>79400</v>
+        <v>79700</v>
       </c>
       <c r="G8" s="3">
-        <v>78200</v>
+        <v>78600</v>
       </c>
       <c r="H8" s="3">
-        <v>74300</v>
+        <v>74700</v>
       </c>
       <c r="I8" s="3">
-        <v>75700</v>
+        <v>76100</v>
       </c>
       <c r="J8" s="3">
-        <v>77200</v>
+        <v>77600</v>
       </c>
       <c r="K8" s="3">
         <v>72800</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41800</v>
+        <v>42000</v>
       </c>
       <c r="E9" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="F9" s="3">
-        <v>50200</v>
+        <v>50500</v>
       </c>
       <c r="G9" s="3">
-        <v>48200</v>
+        <v>48400</v>
       </c>
       <c r="H9" s="3">
-        <v>96200</v>
+        <v>96700</v>
       </c>
       <c r="I9" s="3">
-        <v>47800</v>
+        <v>48000</v>
       </c>
       <c r="J9" s="3">
-        <v>50800</v>
+        <v>51100</v>
       </c>
       <c r="K9" s="3">
         <v>45800</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="E10" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="F10" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="G10" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="H10" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="I10" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="J10" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="K10" s="3">
         <v>27000</v>
@@ -1113,10 +1113,10 @@
         <v>8900</v>
       </c>
       <c r="E15" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G15" s="3">
         <v>7100</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64000</v>
+        <v>64300</v>
       </c>
       <c r="E17" s="3">
-        <v>71100</v>
+        <v>71500</v>
       </c>
       <c r="F17" s="3">
-        <v>72600</v>
+        <v>72900</v>
       </c>
       <c r="G17" s="3">
-        <v>70900</v>
+        <v>71300</v>
       </c>
       <c r="H17" s="3">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="I17" s="3">
-        <v>69000</v>
+        <v>69300</v>
       </c>
       <c r="J17" s="3">
-        <v>70700</v>
+        <v>71000</v>
       </c>
       <c r="K17" s="3">
         <v>67200</v>
@@ -1247,7 +1247,7 @@
         <v>6100</v>
       </c>
       <c r="F18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G18" s="3">
         <v>7300</v>
@@ -1549,7 +1549,7 @@
         <v>500</v>
       </c>
       <c r="F24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
         <v>1200</v>
@@ -2323,19 +2323,19 @@
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2435,19 +2435,19 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>162800</v>
+        <v>163600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>171600</v>
+        <v>172300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
-        <v>170500</v>
+        <v>171300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -2491,19 +2491,19 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2559,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2603,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>224200</v>
+        <v>225200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>214700</v>
+        <v>215600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
-        <v>230400</v>
+        <v>231500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -2715,19 +2715,19 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>211000</v>
+        <v>212000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>186900</v>
+        <v>187700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>116300</v>
+        <v>116800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2777,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2939,19 +2939,19 @@
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <v>46100</v>
+        <v>46300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3051,19 +3051,19 @@
         <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>461400</v>
+        <v>463500</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>432200</v>
+        <v>434100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
-        <v>403200</v>
+        <v>405000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3151,19 +3151,19 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>122200</v>
+        <v>122800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>109100</v>
+        <v>109600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <v>109800</v>
+        <v>110300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>80200</v>
+        <v>80600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>66700</v>
+        <v>67000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3263,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -3319,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>222300</v>
+        <v>223200</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>204100</v>
+        <v>205100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
-        <v>194500</v>
+        <v>195300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>70200</v>
+        <v>70500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>65800</v>
+        <v>66100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3655,19 +3655,19 @@
         <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>308500</v>
+        <v>309900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>284300</v>
+        <v>285600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
-        <v>258000</v>
+        <v>259200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -3957,19 +3957,19 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-133400</v>
+        <v>-134000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>-137900</v>
+        <v>-138500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>-140500</v>
+        <v>-141100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4181,19 +4181,19 @@
         <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>152900</v>
+        <v>153600</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>147800</v>
+        <v>148500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
-        <v>145200</v>
+        <v>145800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71200</v>
+        <v>86700</v>
       </c>
       <c r="E8" s="3">
+        <v>81200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>72400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>78900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>81100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>79900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>76100</v>
+      </c>
+      <c r="L8" s="3">
         <v>77600</v>
       </c>
-      <c r="F8" s="3">
-        <v>79700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>78600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>74700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>76100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>77600</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>72800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>65700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>85100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>73400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>68000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>65900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>72100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>63900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>60500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42000</v>
+        <v>54200</v>
       </c>
       <c r="E9" s="3">
-        <v>46900</v>
+        <v>50200</v>
       </c>
       <c r="F9" s="3">
-        <v>50500</v>
+        <v>85400</v>
       </c>
       <c r="G9" s="3">
-        <v>48400</v>
+        <v>47700</v>
       </c>
       <c r="H9" s="3">
-        <v>96700</v>
+        <v>51300</v>
       </c>
       <c r="I9" s="3">
+        <v>49200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K9" s="3">
         <v>48000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>51100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>45800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>39900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>57500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>48700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>43100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>40600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>46800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>41400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>38400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29200</v>
+        <v>32500</v>
       </c>
       <c r="E10" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>31300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I10" s="3">
         <v>30700</v>
       </c>
-      <c r="F10" s="3">
-        <v>29300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>30200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K10" s="3">
         <v>28100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>27000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>27600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>24700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>25300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>22400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>22100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1143,76 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>8200</v>
+        <v>9100</v>
       </c>
       <c r="G15" s="3">
-        <v>7100</v>
+        <v>9000</v>
       </c>
       <c r="H15" s="3">
-        <v>6800</v>
+        <v>8300</v>
       </c>
       <c r="I15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K15" s="3">
         <v>5300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>5400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>5200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>5600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>6700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>6100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6000</v>
       </c>
       <c r="T15" s="3">
         <v>6100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V15" s="3">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64300</v>
+        <v>78200</v>
       </c>
       <c r="E17" s="3">
-        <v>71500</v>
+        <v>73500</v>
       </c>
       <c r="F17" s="3">
-        <v>72900</v>
+        <v>65500</v>
       </c>
       <c r="G17" s="3">
-        <v>71300</v>
+        <v>72700</v>
       </c>
       <c r="H17" s="3">
-        <v>69500</v>
+        <v>74200</v>
       </c>
       <c r="I17" s="3">
+        <v>72500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K17" s="3">
         <v>69300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>71000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>67200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>60300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>79500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>68500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>64100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>62000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>65300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>59900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>57200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F18" s="3">
         <v>6900</v>
       </c>
-      <c r="E18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="G18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>6900</v>
       </c>
       <c r="R18" s="3">
         <v>3900</v>
       </c>
       <c r="S18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U18" s="3">
         <v>3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1378,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3800</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3400</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,144 +1498,162 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>3300</v>
       </c>
-      <c r="H22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="E23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4300</v>
-      </c>
       <c r="I23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1584,17 +1675,23 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
-        <v>3800</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
-        <v>3400</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,44 +2496,44 @@
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>31400</v>
+        <v>53500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>14000</v>
+        <v>31900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>26200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>28000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>29500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,44 +2620,44 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>163600</v>
+        <v>152400</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>172300</v>
+        <v>166300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
+        <v>175300</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>171300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>166500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>150400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>127100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,44 +2682,44 @@
         <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>17600</v>
+        <v>25400</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>23200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>21200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>15600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,44 +2744,44 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>12600</v>
+        <v>13900</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>11900</v>
+        <v>12900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>13700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,44 +2806,44 @@
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>225200</v>
+        <v>245200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>215600</v>
+        <v>229000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
+        <v>219300</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>231500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>217300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>197500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>180400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2665,38 +2874,38 @@
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>2600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,44 +2930,44 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>212000</v>
+        <v>219200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>187700</v>
+        <v>215600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
+        <v>190900</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>116800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>95800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>101300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>92200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,44 +2992,44 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>7800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>8100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>8200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2945,38 +3184,38 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>18900</v>
+        <v>14500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>46300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>37800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>34400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>33800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,44 +3302,44 @@
         <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>463500</v>
+        <v>490600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>434100</v>
+        <v>471400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
+        <v>441500</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>405000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>361100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>343400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>315500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,44 +3412,44 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>122800</v>
+        <v>133400</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>109600</v>
+        <v>124900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
+        <v>111500</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>110300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>110100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>103300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>87000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,44 +3474,44 @@
         <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>80600</v>
+        <v>84900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>70500</v>
+        <v>81900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>67000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>56900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>51700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>58700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,44 +3536,44 @@
         <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>19900</v>
+        <v>23500</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>25000</v>
+        <v>20300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>18000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>23500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>16500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>14800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,8 +3583,14 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,44 +3598,44 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>223200</v>
+        <v>241900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>205100</v>
+        <v>227000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
+        <v>208500</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>195300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>190400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>171500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>160400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,44 +3660,44 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>70500</v>
+        <v>69800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>66100</v>
+        <v>71700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>45400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>30400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>29600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>24300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,44 +3722,44 @@
         <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>14400</v>
+        <v>16400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>18500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>17700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>12300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,44 +3970,44 @@
         <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>309900</v>
+        <v>328100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>285600</v>
+        <v>315200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
+        <v>290500</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>259200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>238500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>217000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>197000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4289,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,44 +4304,44 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-134000</v>
+        <v>-130000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>-138500</v>
+        <v>-136300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
+        <v>-140800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-141100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-146000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-157800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-165500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4537,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,44 +4552,44 @@
         <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>153600</v>
+        <v>162500</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>148500</v>
+        <v>156200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
+        <v>151000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>145800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>122500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>126400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>118600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>86700</v>
+        <v>86600</v>
       </c>
       <c r="E8" s="3">
-        <v>81200</v>
+        <v>81000</v>
       </c>
       <c r="F8" s="3">
-        <v>72400</v>
+        <v>72300</v>
       </c>
       <c r="G8" s="3">
-        <v>78900</v>
+        <v>78800</v>
       </c>
       <c r="H8" s="3">
-        <v>81100</v>
+        <v>80900</v>
       </c>
       <c r="I8" s="3">
-        <v>79900</v>
+        <v>79800</v>
       </c>
       <c r="J8" s="3">
-        <v>75900</v>
+        <v>75800</v>
       </c>
       <c r="K8" s="3">
         <v>76100</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54200</v>
+        <v>54100</v>
       </c>
       <c r="E9" s="3">
-        <v>50200</v>
+        <v>50100</v>
       </c>
       <c r="F9" s="3">
-        <v>85400</v>
+        <v>85300</v>
       </c>
       <c r="G9" s="3">
-        <v>47700</v>
+        <v>47600</v>
       </c>
       <c r="H9" s="3">
-        <v>51300</v>
+        <v>51200</v>
       </c>
       <c r="I9" s="3">
-        <v>49200</v>
+        <v>49100</v>
       </c>
       <c r="J9" s="3">
-        <v>98300</v>
+        <v>98200</v>
       </c>
       <c r="K9" s="3">
         <v>48000</v>
@@ -886,19 +886,19 @@
         <v>32500</v>
       </c>
       <c r="E10" s="3">
-        <v>31000</v>
+        <v>30900</v>
       </c>
       <c r="F10" s="3">
         <v>-13000</v>
       </c>
       <c r="G10" s="3">
-        <v>31300</v>
+        <v>31200</v>
       </c>
       <c r="H10" s="3">
         <v>29700</v>
       </c>
       <c r="I10" s="3">
-        <v>30700</v>
+        <v>30600</v>
       </c>
       <c r="J10" s="3">
         <v>-22400</v>
@@ -1161,7 +1161,7 @@
         <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G15" s="3">
         <v>9000</v>
@@ -1170,7 +1170,7 @@
         <v>8300</v>
       </c>
       <c r="I15" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J15" s="3">
         <v>7000</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78200</v>
+        <v>78100</v>
       </c>
       <c r="E17" s="3">
-        <v>73500</v>
+        <v>73400</v>
       </c>
       <c r="F17" s="3">
-        <v>65500</v>
+        <v>65400</v>
       </c>
       <c r="G17" s="3">
-        <v>72700</v>
+        <v>72600</v>
       </c>
       <c r="H17" s="3">
-        <v>74200</v>
+        <v>74100</v>
       </c>
       <c r="I17" s="3">
-        <v>72500</v>
+        <v>72400</v>
       </c>
       <c r="J17" s="3">
-        <v>70600</v>
+        <v>70500</v>
       </c>
       <c r="K17" s="3">
         <v>69300</v>
@@ -1309,7 +1309,7 @@
         <v>6900</v>
       </c>
       <c r="G18" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H18" s="3">
         <v>6900</v>
@@ -1516,7 +1516,7 @@
         <v>2900</v>
       </c>
       <c r="F22" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1587,7 +1587,7 @@
         <v>3400</v>
       </c>
       <c r="I23" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J23" s="3">
         <v>4400</v>
@@ -2496,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>53500</v>
+        <v>53400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
@@ -2620,19 +2620,19 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>152400</v>
+        <v>152200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>166300</v>
+        <v>166100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
-        <v>175300</v>
+        <v>175000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -2694,7 +2694,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2750,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2806,19 +2806,19 @@
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>245200</v>
+        <v>244800</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>229000</v>
+        <v>228700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
-        <v>219300</v>
+        <v>219000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -2930,19 +2930,19 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>219200</v>
+        <v>218900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>215600</v>
+        <v>215300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>190900</v>
+        <v>190600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2998,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -3178,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -3302,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>490600</v>
+        <v>489800</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>471400</v>
+        <v>470700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
-        <v>441500</v>
+        <v>440800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3412,19 +3412,19 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>133400</v>
+        <v>133200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <v>124900</v>
+        <v>124700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <v>111500</v>
+        <v>111300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -3474,19 +3474,19 @@
         <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>84900</v>
+        <v>84800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>81900</v>
+        <v>81800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>71600</v>
+        <v>71500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3542,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -3598,19 +3598,19 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>241900</v>
+        <v>241500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="3">
-        <v>227000</v>
+        <v>226700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
-        <v>208500</v>
+        <v>208200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -3660,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>69800</v>
+        <v>69700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>71700</v>
+        <v>71600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3970,19 +3970,19 @@
         <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>328100</v>
+        <v>327600</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>315200</v>
+        <v>314700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
-        <v>290500</v>
+        <v>290000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -4304,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-130000</v>
+        <v>-129800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>-136300</v>
+        <v>-136100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>-140800</v>
+        <v>-140600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4552,19 +4552,19 @@
         <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>162500</v>
+        <v>162200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3">
-        <v>156200</v>
+        <v>156000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
-        <v>151000</v>
+        <v>150800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>86600</v>
+        <v>92300</v>
       </c>
       <c r="E8" s="3">
-        <v>81000</v>
+        <v>84700</v>
       </c>
       <c r="F8" s="3">
-        <v>72300</v>
+        <v>79300</v>
       </c>
       <c r="G8" s="3">
-        <v>78800</v>
+        <v>70700</v>
       </c>
       <c r="H8" s="3">
-        <v>80900</v>
+        <v>77200</v>
       </c>
       <c r="I8" s="3">
-        <v>79800</v>
+        <v>79200</v>
       </c>
       <c r="J8" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K8" s="3">
         <v>75800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>72800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>85100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>72100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>63900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>60500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54100</v>
+        <v>54000</v>
       </c>
       <c r="E9" s="3">
-        <v>50100</v>
+        <v>52900</v>
       </c>
       <c r="F9" s="3">
-        <v>85300</v>
+        <v>49100</v>
       </c>
       <c r="G9" s="3">
-        <v>47600</v>
+        <v>83500</v>
       </c>
       <c r="H9" s="3">
-        <v>51200</v>
+        <v>46600</v>
       </c>
       <c r="I9" s="3">
-        <v>49100</v>
+        <v>50200</v>
       </c>
       <c r="J9" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K9" s="3">
         <v>98200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>46800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>41400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32500</v>
+        <v>38300</v>
       </c>
       <c r="E10" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="F10" s="3">
-        <v>-13000</v>
+        <v>30300</v>
       </c>
       <c r="G10" s="3">
-        <v>31200</v>
+        <v>-12700</v>
       </c>
       <c r="H10" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="I10" s="3">
-        <v>30600</v>
+        <v>29100</v>
       </c>
       <c r="J10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-22400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>25300</v>
       </c>
       <c r="S10" s="3">
         <v>25300</v>
       </c>
       <c r="T10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="U10" s="3">
         <v>22400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9800</v>
+        <v>10800</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="F15" s="3">
         <v>9000</v>
       </c>
       <c r="G15" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="H15" s="3">
-        <v>8300</v>
+        <v>8800</v>
       </c>
       <c r="I15" s="3">
-        <v>7200</v>
+        <v>8100</v>
       </c>
       <c r="J15" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K15" s="3">
         <v>7000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>6100</v>
       </c>
       <c r="T15" s="3">
         <v>6100</v>
       </c>
       <c r="U15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="V15" s="3">
         <v>6000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78100</v>
+        <v>82600</v>
       </c>
       <c r="E17" s="3">
-        <v>73400</v>
+        <v>76400</v>
       </c>
       <c r="F17" s="3">
-        <v>65400</v>
+        <v>71900</v>
       </c>
       <c r="G17" s="3">
-        <v>72600</v>
+        <v>64000</v>
       </c>
       <c r="H17" s="3">
-        <v>74100</v>
+        <v>71000</v>
       </c>
       <c r="I17" s="3">
-        <v>72400</v>
+        <v>72500</v>
       </c>
       <c r="J17" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K17" s="3">
         <v>70500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>60300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>68500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>57200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8500</v>
+        <v>9600</v>
       </c>
       <c r="E18" s="3">
-        <v>7600</v>
+        <v>8300</v>
       </c>
       <c r="F18" s="3">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="G18" s="3">
-        <v>6200</v>
+        <v>6800</v>
       </c>
       <c r="H18" s="3">
-        <v>6900</v>
+        <v>6100</v>
       </c>
       <c r="I18" s="3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="J18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K18" s="3">
         <v>5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3900</v>
       </c>
       <c r="R18" s="3">
         <v>3900</v>
       </c>
       <c r="S18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3000</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H20" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="I20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,159 +1541,168 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="E23" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="F23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
-        <v>3700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>2200</v>
-      </c>
       <c r="F24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1681,17 +1727,20 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2400</v>
-      </c>
       <c r="G26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
-        <v>2300</v>
-      </c>
       <c r="I26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2500</v>
       </c>
       <c r="S26" s="3">
         <v>2500</v>
       </c>
       <c r="T26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U26" s="3">
         <v>2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2400</v>
-      </c>
       <c r="G27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
-        <v>2300</v>
-      </c>
       <c r="I27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2500</v>
       </c>
       <c r="S27" s="3">
         <v>2500</v>
       </c>
       <c r="T27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>3900</v>
-      </c>
       <c r="H32" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2400</v>
-      </c>
       <c r="G33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
-        <v>2300</v>
-      </c>
       <c r="I33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2500</v>
       </c>
       <c r="S33" s="3">
         <v>2500</v>
       </c>
       <c r="T33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2400</v>
-      </c>
       <c r="G35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
-        <v>2300</v>
-      </c>
       <c r="I35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>2500</v>
       </c>
       <c r="S35" s="3">
         <v>2500</v>
       </c>
       <c r="T35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>53400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>52300</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>26200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>28000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>29500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,56 +2701,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>152200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>166100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>175000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
+        <v>149000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>162600</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
         <v>171300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
+        <v>171300</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>166500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>150400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>127100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2673,56 +2766,59 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>25400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>23200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>21200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>9100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>15600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,56 +2831,59 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>10800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>13700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>244800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>228700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>219000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
         <v>231500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>239700</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3">
+        <v>223800</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
+        <v>231500</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>217300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>197500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>180400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2859,56 +2961,59 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
         <v>2900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>1400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2921,56 +3026,59 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>218900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>215300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>190600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>214300</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>210700</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>186600</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>116800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>95800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>101300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>92200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2983,56 +3091,59 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="D49" s="3">
         <v>9300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>7800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>8100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>8200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>7800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
         <v>14200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>46300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>37800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>34400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>33800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>489800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
-        <v>470700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>440800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>493100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>479500</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
+        <v>460700</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
+        <v>431500</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>405000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>361100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>343400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>315500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
-        <v>133200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
-        <v>124700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
-        <v>111300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
+        <v>130400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <v>122000</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>110300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>110100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>103300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>87000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3465,56 +3596,59 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
-        <v>84800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>81800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>71500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>83000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>80100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>67000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>56900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>51700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>58700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3527,56 +3661,59 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>23500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>25400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
-        <v>18000</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
-        <v>23500</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>16500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>14800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3589,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>241500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
-        <v>226700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
-        <v>208200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>236400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
+        <v>221900</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
+        <v>203800</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>195300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>190400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>171500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>160400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,56 +3791,59 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>72800</v>
       </c>
       <c r="E61" s="3">
-        <v>69700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>68200</v>
       </c>
       <c r="G61" s="3">
-        <v>71600</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>70100</v>
       </c>
       <c r="I61" s="3">
-        <v>67200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>65700</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>45400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>30400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>29600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>24300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,56 +3856,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>16400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>18500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>17700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>12300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
-        <v>327600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3">
-        <v>314700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
-        <v>290000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3">
+        <v>320700</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
+        <v>308100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>259200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>238500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>217000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>197000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-129800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-140600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-137700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-141100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-146000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-157800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-165500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3">
-        <v>162200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3">
-        <v>156000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
-        <v>150800</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>158800</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3">
+        <v>152700</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>145800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>122500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>126400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>118600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2400</v>
-      </c>
       <c r="G81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
-        <v>2300</v>
-      </c>
       <c r="I81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>2500</v>
       </c>
       <c r="S81" s="3">
         <v>2500</v>
       </c>
       <c r="T81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>92300</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>84700</v>
+        <v>91400</v>
       </c>
       <c r="F8" s="3">
-        <v>79300</v>
+        <v>84000</v>
       </c>
       <c r="G8" s="3">
-        <v>70700</v>
+        <v>78600</v>
       </c>
       <c r="H8" s="3">
-        <v>77200</v>
+        <v>70100</v>
       </c>
       <c r="I8" s="3">
-        <v>79200</v>
+        <v>76500</v>
       </c>
       <c r="J8" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K8" s="3">
         <v>78100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>85100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>72100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>63900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>60500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>54000</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>52900</v>
+        <v>53500</v>
       </c>
       <c r="F9" s="3">
-        <v>49100</v>
+        <v>52500</v>
       </c>
       <c r="G9" s="3">
-        <v>83500</v>
+        <v>48600</v>
       </c>
       <c r="H9" s="3">
-        <v>46600</v>
+        <v>82700</v>
       </c>
       <c r="I9" s="3">
-        <v>50200</v>
+        <v>46200</v>
       </c>
       <c r="J9" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K9" s="3">
         <v>48100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>57500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>46800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>41400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>38300</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>31800</v>
+        <v>37900</v>
       </c>
       <c r="F10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="I10" s="3">
         <v>30300</v>
       </c>
-      <c r="G10" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>30600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>29100</v>
-      </c>
       <c r="J10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K10" s="3">
         <v>30000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-22400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24900</v>
-      </c>
-      <c r="S10" s="3">
-        <v>25300</v>
       </c>
       <c r="T10" s="3">
         <v>25300</v>
       </c>
       <c r="U10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="V10" s="3">
         <v>22400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>22100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F15" s="3">
         <v>9500</v>
       </c>
-      <c r="F15" s="3">
-        <v>9000</v>
-      </c>
       <c r="G15" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="H15" s="3">
         <v>8800</v>
       </c>
       <c r="I15" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K15" s="3">
         <v>7100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6700</v>
-      </c>
-      <c r="T15" s="3">
-        <v>6100</v>
       </c>
       <c r="U15" s="3">
         <v>6100</v>
       </c>
       <c r="V15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="W15" s="3">
         <v>6000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82600</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>76400</v>
+        <v>81900</v>
       </c>
       <c r="F17" s="3">
-        <v>71900</v>
+        <v>75800</v>
       </c>
       <c r="G17" s="3">
-        <v>64000</v>
+        <v>71200</v>
       </c>
       <c r="H17" s="3">
+        <v>63400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>70400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>70800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>70500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="N17" s="3">
         <v>71000</v>
       </c>
-      <c r="I17" s="3">
-        <v>72500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>70800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>70500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>69300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>71000</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>60300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>68500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>57200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>9600</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>8300</v>
+        <v>9500</v>
       </c>
       <c r="F18" s="3">
-        <v>7500</v>
+        <v>8200</v>
       </c>
       <c r="G18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M18" s="3">
         <v>6800</v>
       </c>
-      <c r="H18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3900</v>
       </c>
       <c r="S18" s="3">
         <v>3900</v>
       </c>
       <c r="T18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U18" s="3">
         <v>6900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,157 +1595,163 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>2900</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="F23" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="G23" s="3">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="H23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1730,17 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
-        <v>3500</v>
-      </c>
       <c r="G26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2500</v>
       </c>
       <c r="T26" s="3">
         <v>2500</v>
       </c>
       <c r="U26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V26" s="3">
         <v>2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
-        <v>3500</v>
-      </c>
       <c r="G27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>2500</v>
       </c>
       <c r="T27" s="3">
         <v>2500</v>
       </c>
       <c r="U27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V27" s="3">
         <v>2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
-        <v>3500</v>
-      </c>
       <c r="G33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2500</v>
       </c>
       <c r="T33" s="3">
         <v>2500</v>
       </c>
       <c r="U33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V33" s="3">
         <v>2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
-        <v>3500</v>
-      </c>
       <c r="G35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2500</v>
       </c>
       <c r="T35" s="3">
         <v>2500</v>
       </c>
       <c r="U35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V35" s="3">
         <v>2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>68600</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>52300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>31200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>51800</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>13900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>26200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>28000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>29500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,59 +2794,62 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>130900</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>149000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>162600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>129700</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>147600</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>161100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>171300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>171300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>166500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>150400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>127100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2769,59 +2862,62 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>19000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>24900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>17300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>23200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>21200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>9100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>15600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2834,59 +2930,62 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>13000</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>10800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>13700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>229400</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3">
+        <v>237500</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>221800</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
+        <v>214400</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>231500</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>239700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
-        <v>223800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
-        <v>214400</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
-        <v>231500</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>217300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>197500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>180400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2964,59 +3066,62 @@
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>2800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>1400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3029,59 +3134,62 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>229100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>214300</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>210700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>227100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>212400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>208800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>186600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>116800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>95800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>101300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>92200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3094,59 +3202,62 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>9300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>9100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>9100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>7800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>8100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>8200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>7800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>20300</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>18800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>46300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>37800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>34400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>33800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>493100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>479500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>460700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>488700</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>475200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>456600</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>431500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>405000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>361100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>343400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>315500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3664,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>124100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
-        <v>130400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
-        <v>122000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>129200</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>121000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>108900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>110300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>110100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>103300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>87000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3599,59 +3730,62 @@
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>85000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>83000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>80100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>84300</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>82300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>79400</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>70000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>67000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>56900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>51700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>58700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3664,59 +3798,62 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>18500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>23000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>22800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>24900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>18000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>23500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>16500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>14800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>227600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3">
-        <v>236400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
-        <v>221900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
+        <v>225600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3">
+        <v>234300</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>219900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>203800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>195300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>190400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>171500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>160400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3794,59 +3934,62 @@
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>72200</v>
       </c>
       <c r="F61" s="3">
-        <v>68200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>67600</v>
       </c>
       <c r="H61" s="3">
-        <v>70100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>69500</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>65700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>45400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>30400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>29600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>24300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,59 +4002,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>15600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>14300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>18500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>17700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>15900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>12300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>316100</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>320700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>308100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>313200</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>317800</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
+        <v>305300</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>283900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>259200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>238500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>217000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>197000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-112800</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-127000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-133200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-137700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-141100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-146000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-165500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>177100</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>158800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
-        <v>152700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>175500</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>157400</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
+        <v>151300</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>147600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>145800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>122500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>126400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>118600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
-        <v>3500</v>
-      </c>
       <c r="G81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2500</v>
       </c>
       <c r="T81" s="3">
         <v>2500</v>
       </c>
       <c r="U81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V81" s="3">
         <v>2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,31 +5217,32 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,31 +5623,34 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5719,32 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,31 +5921,34 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,31 +6287,34 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6109,31 +6355,34 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6174,31 +6423,34 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>88700</v>
       </c>
       <c r="E8" s="3">
-        <v>91400</v>
+        <v>91300</v>
       </c>
       <c r="F8" s="3">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="G8" s="3">
-        <v>78600</v>
+        <v>89700</v>
       </c>
       <c r="H8" s="3">
-        <v>70100</v>
+        <v>82400</v>
       </c>
       <c r="I8" s="3">
+        <v>77100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K8" s="3">
         <v>76500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>78500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>78100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>75800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>77600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>72800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>65700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>85100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>73400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>68000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>65900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>72100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>63900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>60500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>51400</v>
       </c>
       <c r="E9" s="3">
-        <v>53500</v>
+        <v>54000</v>
       </c>
       <c r="F9" s="3">
+        <v>51100</v>
+      </c>
+      <c r="G9" s="3">
         <v>52500</v>
       </c>
-      <c r="G9" s="3">
-        <v>48600</v>
-      </c>
       <c r="H9" s="3">
-        <v>82700</v>
+        <v>51400</v>
       </c>
       <c r="I9" s="3">
+        <v>47700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K9" s="3">
         <v>46200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>49700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>48100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>98200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>48000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>51100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>45800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>39900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>57500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>48700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>43100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>40600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>46800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>41400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>38400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>37300</v>
       </c>
       <c r="E10" s="3">
-        <v>37900</v>
+        <v>37300</v>
       </c>
       <c r="F10" s="3">
-        <v>31500</v>
+        <v>33300</v>
       </c>
       <c r="G10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="M10" s="3">
         <v>30000</v>
       </c>
-      <c r="H10" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>30300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>28800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-22400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>28100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>27000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>27600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>24700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>24900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>25300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>25300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>22400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>22100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1160,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1195,76 +1234,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="F15" s="3">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="G15" s="3">
-        <v>8900</v>
+        <v>10500</v>
       </c>
       <c r="H15" s="3">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="I15" s="3">
         <v>8700</v>
       </c>
       <c r="J15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>5300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>5000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>5100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>5400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>5200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>5600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>7400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>6700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>6100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="W15" s="3">
-        <v>6000</v>
       </c>
       <c r="X15" s="3">
         <v>6100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>78800</v>
       </c>
       <c r="E17" s="3">
-        <v>81900</v>
+        <v>82000</v>
       </c>
       <c r="F17" s="3">
-        <v>75800</v>
+        <v>75600</v>
       </c>
       <c r="G17" s="3">
-        <v>71200</v>
+        <v>80300</v>
       </c>
       <c r="H17" s="3">
-        <v>63400</v>
+        <v>74300</v>
       </c>
       <c r="I17" s="3">
+        <v>69800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K17" s="3">
         <v>70400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>71800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>70500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>69300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>71000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>67200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>60300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>79500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>68500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>64100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>62000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>65300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>59900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>57200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>9900</v>
       </c>
       <c r="E18" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F18" s="3">
-        <v>8200</v>
+        <v>8700</v>
       </c>
       <c r="G18" s="3">
-        <v>7400</v>
+        <v>9400</v>
       </c>
       <c r="H18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>6900</v>
       </c>
       <c r="V18" s="3">
         <v>3900</v>
       </c>
       <c r="W18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="X18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1513,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-3600</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-4300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,180 +1657,198 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>3000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>1400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E23" s="3">
-        <v>6900</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="G23" s="3">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="H23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
-        <v>-4400</v>
+        <v>1400</v>
       </c>
       <c r="F24" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1779,17 +1870,23 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="3">
-        <v>11300</v>
+        <v>4700</v>
       </c>
       <c r="F26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>3400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1800</v>
       </c>
       <c r="J26" s="3">
         <v>2200</v>
       </c>
       <c r="K26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E27" s="3">
-        <v>11300</v>
+        <v>4700</v>
       </c>
       <c r="F27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>3400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1800</v>
       </c>
       <c r="J27" s="3">
         <v>2200</v>
       </c>
       <c r="K27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>3600</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>4300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E33" s="3">
-        <v>11300</v>
+        <v>4700</v>
       </c>
       <c r="F33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>3400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1800</v>
       </c>
       <c r="J33" s="3">
         <v>2200</v>
       </c>
       <c r="K33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E35" s="3">
-        <v>11300</v>
+        <v>4700</v>
       </c>
       <c r="F35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>3400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1800</v>
       </c>
       <c r="J35" s="3">
         <v>2200</v>
       </c>
       <c r="K35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2832,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>25500</v>
       </c>
       <c r="E41" s="3">
-        <v>68000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
+        <v>66700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>50800</v>
       </c>
       <c r="G41" s="3">
-        <v>51800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>30900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>13900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>26200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>28000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>29500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2729,8 +2902,14 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,34 +2976,40 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>185400</v>
       </c>
       <c r="E43" s="3">
-        <v>129700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
+        <v>127200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>144800</v>
       </c>
       <c r="G43" s="3">
-        <v>147600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
+        <v>158000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>166500</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>161100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
-        <v>171300</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -2836,26 +3021,26 @@
         <v>8</v>
       </c>
       <c r="O43" s="3">
+        <v>171300</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>166500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>150400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>127100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,65 +3050,71 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>28900</v>
       </c>
       <c r="E44" s="3">
-        <v>18900</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>18500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>24200</v>
       </c>
       <c r="G44" s="3">
-        <v>24600</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>17400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>17300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>23200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>21200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>9100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>15600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2933,65 +3124,71 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>20200</v>
       </c>
       <c r="E45" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+        <v>12600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13200</v>
       </c>
       <c r="G45" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>10800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>13700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>8200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3001,65 +3198,71 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>260000</v>
       </c>
       <c r="E46" s="3">
-        <v>229400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
+        <v>224900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>232900</v>
       </c>
       <c r="G46" s="3">
-        <v>237500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
+        <v>217500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>208300</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>221800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>214400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>231500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>217300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>197500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>180400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,65 +3272,71 @@
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>6000</v>
       </c>
       <c r="E47" s="3">
         <v>2800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>2700</v>
       </c>
       <c r="G47" s="3">
         <v>2800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>2800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>2600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>2000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>1400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3137,65 +3346,71 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>238100</v>
       </c>
       <c r="E48" s="3">
-        <v>227100</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>222700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>208200</v>
       </c>
       <c r="G48" s="3">
-        <v>212400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
+        <v>204800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>181300</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>208800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>186600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>116800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>95800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>101300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>92200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3205,28 +3420,34 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>10300</v>
       </c>
       <c r="E49" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+        <v>9100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8600</v>
       </c>
       <c r="G49" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>9100</v>
+        <v>8900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3238,32 +3459,32 @@
         <v>8</v>
       </c>
       <c r="M49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>7800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>8100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>8200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>7800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3642,71 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>25700</v>
       </c>
       <c r="E52" s="3">
-        <v>20200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+        <v>19800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>13500</v>
       </c>
       <c r="G52" s="3">
         <v>13800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>14100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>18800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>46300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>37800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>34400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>33800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3790,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>540100</v>
       </c>
       <c r="E54" s="3">
-        <v>488700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
+        <v>479200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>466000</v>
       </c>
       <c r="G54" s="3">
-        <v>475200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
+        <v>447700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>419300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>456600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>431500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>405000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>361100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>343400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>315500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3613,8 +3864,14 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3924,67 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>151100</v>
       </c>
       <c r="E57" s="3">
-        <v>123000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
+        <v>120600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>126700</v>
       </c>
       <c r="G57" s="3">
-        <v>129200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
+        <v>118600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>105900</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>121000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>108900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>110300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>110100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>103300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>87000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3733,65 +3994,71 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>93400</v>
       </c>
       <c r="E58" s="3">
-        <v>84300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>82600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>80700</v>
       </c>
       <c r="G58" s="3">
-        <v>82300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
+        <v>77800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>68100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>79400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>70000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>67000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>56900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>51700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>58700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3801,65 +4068,71 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>25100</v>
       </c>
       <c r="E59" s="3">
-        <v>18400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>18000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>22400</v>
       </c>
       <c r="G59" s="3">
-        <v>22800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>24900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>18000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>23500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>16500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>14800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,65 +4142,71 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>269600</v>
       </c>
       <c r="E60" s="3">
-        <v>225600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
+        <v>221200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>229800</v>
       </c>
       <c r="G60" s="3">
-        <v>234300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
+        <v>215700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>198100</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>219900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>203800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>195300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>190400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>171500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>160400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3937,65 +4216,71 @@
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="E61" s="3">
-        <v>72200</v>
+        <v>70800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>66300</v>
       </c>
       <c r="G61" s="3">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>63900</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>69500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>65700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>45400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>30400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>29600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>24300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,65 +4290,71 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>21700</v>
       </c>
       <c r="E62" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+        <v>15200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>15600</v>
       </c>
       <c r="G62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>15900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>15900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>14300</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
-        <v>18500</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
-        <v>17700</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>15900</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>12300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4586,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>359000</v>
       </c>
       <c r="E66" s="3">
-        <v>313200</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
+        <v>307100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>311600</v>
       </c>
       <c r="G66" s="3">
-        <v>317800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
+        <v>299400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>275900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>305300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>283900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>259200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>238500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>217000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>197000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4345,8 +4660,14 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4984,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-100600</v>
       </c>
       <c r="E72" s="3">
-        <v>-111800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
+        <v>-109600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-123400</v>
       </c>
       <c r="G72" s="3">
-        <v>-125900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-132000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-137700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-141100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-146000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-157800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-165500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +5058,14 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5280,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>181100</v>
       </c>
       <c r="E76" s="3">
-        <v>175500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
+        <v>172100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>154300</v>
       </c>
       <c r="G76" s="3">
-        <v>157400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
+        <v>148400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>143400</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>151300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>147600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>145800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>122500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>126400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>118600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +5354,14 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E81" s="3">
-        <v>11300</v>
+        <v>4700</v>
       </c>
       <c r="F81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>3400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1800</v>
       </c>
       <c r="J81" s="3">
         <v>2200</v>
       </c>
       <c r="K81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5244,11 +5641,11 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5652,11 +6085,11 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5694,8 +6127,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5746,11 +6187,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5950,11 +6409,11 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6316,11 +6807,11 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6358,8 +6849,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6384,11 +6881,11 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6426,8 +6923,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6452,11 +6955,11 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>88700</v>
+        <v>87900</v>
       </c>
       <c r="E8" s="3">
-        <v>91300</v>
+        <v>87600</v>
       </c>
       <c r="F8" s="3">
-        <v>84300</v>
+        <v>90300</v>
       </c>
       <c r="G8" s="3">
-        <v>89700</v>
+        <v>83300</v>
       </c>
       <c r="H8" s="3">
-        <v>82400</v>
+        <v>88600</v>
       </c>
       <c r="I8" s="3">
-        <v>77100</v>
+        <v>81400</v>
       </c>
       <c r="J8" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K8" s="3">
         <v>68700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>72800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>85100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>72100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>63900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>60500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51400</v>
+        <v>52700</v>
       </c>
       <c r="E9" s="3">
-        <v>54000</v>
+        <v>50800</v>
       </c>
       <c r="F9" s="3">
+        <v>53400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>51900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>81100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>46200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>49700</v>
+      </c>
+      <c r="N9" s="3">
+        <v>48100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>98200</v>
+      </c>
+      <c r="P9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>51100</v>
       </c>
-      <c r="G9" s="3">
-        <v>52500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>51400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>47700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>81100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>46200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>49700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>48100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>98200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>48000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>51100</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>57500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>43100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>46800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>41400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>38400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37300</v>
+        <v>35300</v>
       </c>
       <c r="E10" s="3">
-        <v>37300</v>
+        <v>36800</v>
       </c>
       <c r="F10" s="3">
-        <v>33300</v>
+        <v>36800</v>
       </c>
       <c r="G10" s="3">
-        <v>37200</v>
+        <v>32900</v>
       </c>
       <c r="H10" s="3">
-        <v>30900</v>
+        <v>36800</v>
       </c>
       <c r="I10" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="J10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-12400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-22400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24900</v>
-      </c>
-      <c r="V10" s="3">
-        <v>25300</v>
       </c>
       <c r="W10" s="3">
         <v>25300</v>
       </c>
       <c r="X10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="Y10" s="3">
         <v>22400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>22100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,17 +1183,20 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +1212,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="E15" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H15" s="3">
         <v>10300</v>
       </c>
-      <c r="F15" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>9300</v>
-      </c>
       <c r="I15" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="J15" s="3">
         <v>8600</v>
       </c>
       <c r="K15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L15" s="3">
         <v>8700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6700</v>
-      </c>
-      <c r="W15" s="3">
-        <v>6100</v>
       </c>
       <c r="X15" s="3">
         <v>6100</v>
       </c>
       <c r="Y15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Z15" s="3">
         <v>6000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78800</v>
+        <v>78400</v>
       </c>
       <c r="E17" s="3">
-        <v>82000</v>
+        <v>77900</v>
       </c>
       <c r="F17" s="3">
-        <v>75600</v>
+        <v>81000</v>
       </c>
       <c r="G17" s="3">
-        <v>80300</v>
+        <v>74700</v>
       </c>
       <c r="H17" s="3">
-        <v>74300</v>
+        <v>79400</v>
       </c>
       <c r="I17" s="3">
-        <v>69800</v>
+        <v>73400</v>
       </c>
       <c r="J17" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K17" s="3">
         <v>62200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>69300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>71000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>68500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>65300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>59900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>57200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="E18" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="F18" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="G18" s="3">
-        <v>9400</v>
+        <v>8600</v>
       </c>
       <c r="H18" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="I18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>6600</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3900</v>
       </c>
       <c r="V18" s="3">
         <v>3900</v>
       </c>
       <c r="W18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="X18" s="3">
         <v>6900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-4300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,195 +1700,204 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>1400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
-        <v>5800</v>
-      </c>
       <c r="G23" s="3">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="H23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
-        <v>1500</v>
-      </c>
       <c r="G24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
-        <v>2100</v>
-      </c>
       <c r="J24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1876,17 +1922,20 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E26" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
-        <v>11100</v>
-      </c>
       <c r="H26" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
-        <v>3400</v>
-      </c>
       <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>2500</v>
       </c>
       <c r="W26" s="3">
         <v>2500</v>
       </c>
       <c r="X26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E27" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
-        <v>11100</v>
-      </c>
       <c r="H27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
-        <v>3400</v>
-      </c>
       <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>2500</v>
       </c>
       <c r="W27" s="3">
         <v>2500</v>
       </c>
       <c r="X27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y27" s="3">
         <v>2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>4300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E33" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
-        <v>11100</v>
-      </c>
       <c r="H33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
-        <v>3400</v>
-      </c>
       <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>2500</v>
       </c>
       <c r="W33" s="3">
         <v>2500</v>
       </c>
       <c r="X33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y33" s="3">
         <v>2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E35" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
-        <v>11100</v>
-      </c>
       <c r="H35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
-        <v>3400</v>
-      </c>
       <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>2500</v>
       </c>
       <c r="W35" s="3">
         <v>2500</v>
       </c>
       <c r="X35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y35" s="3">
         <v>2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,68 +2920,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>25500</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>66700</v>
+        <v>25200</v>
       </c>
       <c r="F41" s="3">
-        <v>50800</v>
+        <v>65900</v>
       </c>
       <c r="G41" s="3">
-        <v>30300</v>
+        <v>50200</v>
       </c>
       <c r="H41" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>30000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>13400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>30900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>13900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>26200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>28000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>29500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,68 +3072,71 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>185400</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>127200</v>
+        <v>183200</v>
       </c>
       <c r="F43" s="3">
-        <v>144800</v>
+        <v>125700</v>
       </c>
       <c r="G43" s="3">
-        <v>158000</v>
+        <v>143100</v>
       </c>
       <c r="H43" s="3">
+        <v>156200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>164600</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
+        <v>161100</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
+        <v>171300</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
+        <v>171300</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>166500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
-        <v>161100</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
-        <v>171300</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
-        <v>171300</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>166500</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>150400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>127100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3056,68 +3149,71 @@
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>28900</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>18500</v>
+        <v>28500</v>
       </c>
       <c r="F44" s="3">
-        <v>24200</v>
+        <v>18300</v>
       </c>
       <c r="G44" s="3">
-        <v>17000</v>
+        <v>23900</v>
       </c>
       <c r="H44" s="3">
         <v>16800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="I44" s="3">
+        <v>16600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>17400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>17300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>23200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>21200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>9100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>15600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3130,68 +3226,71 @@
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>20200</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>12600</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="G45" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="H45" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>12100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>10800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>13700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>8200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3204,68 +3303,71 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>260000</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>224900</v>
+        <v>257000</v>
       </c>
       <c r="F46" s="3">
-        <v>232900</v>
+        <v>222300</v>
       </c>
       <c r="G46" s="3">
-        <v>217500</v>
+        <v>230200</v>
       </c>
       <c r="H46" s="3">
-        <v>208300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>215000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>205900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>221800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>214400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>231500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>217300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>197500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>180400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3278,68 +3380,71 @@
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>6000</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>2800</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="3">
         <v>2700</v>
       </c>
       <c r="G47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>2800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>2100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>2000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>1400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3352,68 +3457,71 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>238100</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>222700</v>
+        <v>235300</v>
       </c>
       <c r="F48" s="3">
-        <v>208200</v>
+        <v>220100</v>
       </c>
       <c r="G48" s="3">
-        <v>204800</v>
+        <v>205800</v>
       </c>
       <c r="H48" s="3">
-        <v>181300</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>202400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>179200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>208800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>186600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>116800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>95800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>101300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>92200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3426,68 +3534,71 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>10300</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>9100</v>
       </c>
-      <c r="F49" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>9100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
-        <v>9100</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>7800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>8100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>8200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>7800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,68 +3765,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>25700</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>19800</v>
+        <v>25400</v>
       </c>
       <c r="F52" s="3">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="G52" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="H52" s="3">
-        <v>18200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+        <v>13600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>18000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>14100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>18800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>46300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>37800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>34400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>33800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,68 +3919,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>540100</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>479200</v>
+        <v>533900</v>
       </c>
       <c r="F54" s="3">
-        <v>466000</v>
+        <v>473700</v>
       </c>
       <c r="G54" s="3">
-        <v>447700</v>
+        <v>460600</v>
       </c>
       <c r="H54" s="3">
-        <v>419300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>442600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>414500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>456600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>431500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>405000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>361100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>343400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>315500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,68 +4056,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>151100</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>120600</v>
+        <v>149400</v>
       </c>
       <c r="F57" s="3">
-        <v>126700</v>
+        <v>119200</v>
       </c>
       <c r="G57" s="3">
-        <v>118600</v>
+        <v>125300</v>
       </c>
       <c r="H57" s="3">
-        <v>105900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>117200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>104600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>121000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>108900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>110300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>110100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>103300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>87000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4000,68 +4131,71 @@
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>93400</v>
+        <v>96700</v>
       </c>
       <c r="E58" s="3">
-        <v>82600</v>
+        <v>92400</v>
       </c>
       <c r="F58" s="3">
-        <v>80700</v>
+        <v>81700</v>
       </c>
       <c r="G58" s="3">
-        <v>77800</v>
+        <v>79800</v>
       </c>
       <c r="H58" s="3">
-        <v>68100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>76900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>67300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>79400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>70000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>67000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>56900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>51700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>58700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4074,68 +4208,71 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>25100</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>18000</v>
       </c>
-      <c r="F59" s="3">
-        <v>22400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>24200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
-        <v>19600</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
-        <v>24900</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
-        <v>18000</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>23500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>16500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>14800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4148,68 +4285,71 @@
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>269600</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>221200</v>
+        <v>266500</v>
       </c>
       <c r="F60" s="3">
-        <v>229800</v>
+        <v>218600</v>
       </c>
       <c r="G60" s="3">
-        <v>215700</v>
+        <v>227100</v>
       </c>
       <c r="H60" s="3">
-        <v>198100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>213200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>195800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>219900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>203800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>195300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>190400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>171500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>160400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,68 +4362,71 @@
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67700</v>
+        <v>100400</v>
       </c>
       <c r="E61" s="3">
-        <v>70800</v>
+        <v>66900</v>
       </c>
       <c r="F61" s="3">
-        <v>66300</v>
+        <v>70000</v>
       </c>
       <c r="G61" s="3">
-        <v>68100</v>
+        <v>65500</v>
       </c>
       <c r="H61" s="3">
-        <v>63900</v>
+        <v>67300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>63100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>69500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>65700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>45400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>30400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>29600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>24300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4296,68 +4439,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>21700</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>15200</v>
+        <v>21400</v>
       </c>
       <c r="F62" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G62" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="H62" s="3">
-        <v>13900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>15400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>13800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>15900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>14300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>18500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>17700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>15900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>12300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>359000</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>307100</v>
+        <v>354900</v>
       </c>
       <c r="F66" s="3">
-        <v>311600</v>
+        <v>303600</v>
       </c>
       <c r="G66" s="3">
-        <v>299400</v>
+        <v>308100</v>
       </c>
       <c r="H66" s="3">
-        <v>275900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>295900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>272700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>305300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>283900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>259200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>238500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>217000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>197000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,68 +5161,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-100600</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-109600</v>
+        <v>-99400</v>
       </c>
       <c r="F72" s="3">
-        <v>-123400</v>
+        <v>-108400</v>
       </c>
       <c r="G72" s="3">
-        <v>-129500</v>
+        <v>-122000</v>
       </c>
       <c r="H72" s="3">
-        <v>-133800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>-128000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-132200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-132000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-137700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-141100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-146000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-157800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-165500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,68 +5469,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>181100</v>
+        <v>188300</v>
       </c>
       <c r="E76" s="3">
-        <v>172100</v>
+        <v>179000</v>
       </c>
       <c r="F76" s="3">
-        <v>154300</v>
+        <v>170100</v>
       </c>
       <c r="G76" s="3">
-        <v>148400</v>
+        <v>152600</v>
       </c>
       <c r="H76" s="3">
-        <v>143400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>146700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>141800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>151300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>147600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>145800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>122500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>126400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>118600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E81" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
-        <v>11100</v>
-      </c>
       <c r="H81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
-        <v>3400</v>
-      </c>
       <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>2500</v>
       </c>
       <c r="W81" s="3">
         <v>2500</v>
       </c>
       <c r="X81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y81" s="3">
         <v>2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,31 +5813,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -5647,8 +5846,8 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,31 +6273,34 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -6091,8 +6308,8 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,31 +6381,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -6193,8 +6414,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,31 +6610,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -6415,8 +6645,8 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,31 +7024,34 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -6813,8 +7059,8 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6855,31 +7101,34 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -6887,8 +7136,8 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -6929,31 +7178,34 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
@@ -6961,8 +7213,8 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>87900</v>
+        <v>96500</v>
       </c>
       <c r="E8" s="3">
-        <v>87600</v>
+        <v>85200</v>
       </c>
       <c r="F8" s="3">
-        <v>90300</v>
+        <v>84900</v>
       </c>
       <c r="G8" s="3">
-        <v>83300</v>
+        <v>87500</v>
       </c>
       <c r="H8" s="3">
-        <v>88600</v>
+        <v>80800</v>
       </c>
       <c r="I8" s="3">
-        <v>81400</v>
+        <v>85900</v>
       </c>
       <c r="J8" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K8" s="3">
         <v>76200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>75800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>72800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>85100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>73400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>68000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>72100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>63900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>60500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52700</v>
+        <v>61500</v>
       </c>
       <c r="E9" s="3">
-        <v>50800</v>
+        <v>51000</v>
       </c>
       <c r="F9" s="3">
-        <v>53400</v>
+        <v>49200</v>
       </c>
       <c r="G9" s="3">
-        <v>50500</v>
+        <v>51800</v>
       </c>
       <c r="H9" s="3">
-        <v>51900</v>
+        <v>97700</v>
       </c>
       <c r="I9" s="3">
-        <v>50900</v>
+        <v>50300</v>
       </c>
       <c r="J9" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K9" s="3">
         <v>47100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>81100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>57500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>43100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>46800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>41400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>38400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="E10" s="3">
-        <v>36800</v>
+        <v>34200</v>
       </c>
       <c r="F10" s="3">
-        <v>36800</v>
+        <v>35700</v>
       </c>
       <c r="G10" s="3">
-        <v>32900</v>
+        <v>35700</v>
       </c>
       <c r="H10" s="3">
-        <v>36800</v>
+        <v>-17000</v>
       </c>
       <c r="I10" s="3">
-        <v>30600</v>
+        <v>35600</v>
       </c>
       <c r="J10" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K10" s="3">
         <v>29100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-12400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-22400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24900</v>
-      </c>
-      <c r="W10" s="3">
-        <v>25300</v>
       </c>
       <c r="X10" s="3">
         <v>25300</v>
       </c>
       <c r="Y10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="Z10" s="3">
         <v>22400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>22100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,11 +1215,11 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1215,8 +1235,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="E15" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="G15" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="H15" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="3">
-        <v>9200</v>
+        <v>10000</v>
       </c>
       <c r="J15" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="K15" s="3">
         <v>8600</v>
       </c>
       <c r="L15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="M15" s="3">
         <v>8700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>6700</v>
-      </c>
-      <c r="X15" s="3">
-        <v>6100</v>
       </c>
       <c r="Y15" s="3">
         <v>6100</v>
       </c>
       <c r="Z15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AA15" s="3">
         <v>6000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78400</v>
+        <v>88100</v>
       </c>
       <c r="E17" s="3">
-        <v>77900</v>
+        <v>76000</v>
       </c>
       <c r="F17" s="3">
-        <v>81000</v>
+        <v>75500</v>
       </c>
       <c r="G17" s="3">
-        <v>74700</v>
+        <v>78500</v>
       </c>
       <c r="H17" s="3">
-        <v>79400</v>
+        <v>72400</v>
       </c>
       <c r="I17" s="3">
-        <v>73400</v>
+        <v>76900</v>
       </c>
       <c r="J17" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K17" s="3">
         <v>69000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>69300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>71000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>79500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>68500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>64100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>65300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>59900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>57200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F18" s="3">
         <v>9500</v>
       </c>
-      <c r="E18" s="3">
-        <v>9800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9200</v>
-      </c>
       <c r="G18" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="H18" s="3">
-        <v>9200</v>
+        <v>8300</v>
       </c>
       <c r="I18" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="J18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3900</v>
       </c>
       <c r="W18" s="3">
         <v>3900</v>
       </c>
       <c r="X18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Y18" s="3">
         <v>6900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1592,79 @@
         <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="F20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H20" s="3">
-        <v>-2500</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2800</v>
+        <v>-2400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,193 +1754,199 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>3300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>1400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="E23" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
         <v>6000</v>
       </c>
       <c r="G23" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H23" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="I23" s="3">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="J23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1925,17 +1971,20 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="E26" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>2500</v>
       </c>
       <c r="X26" s="3">
         <v>2500</v>
       </c>
       <c r="Y26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z26" s="3">
         <v>2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>2500</v>
       </c>
       <c r="X27" s="3">
         <v>2500</v>
       </c>
       <c r="Y27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z27" s="3">
         <v>2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,153 +2552,159 @@
         <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>3000</v>
-      </c>
       <c r="H32" s="3">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="J32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>4300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>2500</v>
       </c>
       <c r="X33" s="3">
         <v>2500</v>
       </c>
       <c r="Y33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z33" s="3">
         <v>2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>2500</v>
       </c>
       <c r="X35" s="3">
         <v>2500</v>
       </c>
       <c r="Y35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z35" s="3">
         <v>2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,28 +3007,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>47400</v>
       </c>
       <c r="E41" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="F41" s="3">
-        <v>65900</v>
+        <v>63900</v>
       </c>
       <c r="G41" s="3">
-        <v>50200</v>
+        <v>48600</v>
       </c>
       <c r="H41" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>13400</v>
+        <v>29000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2950,42 +3037,42 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>30900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>13900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>26200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>28000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>29500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,28 +3165,31 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>176700</v>
       </c>
       <c r="E43" s="3">
-        <v>183200</v>
+        <v>177600</v>
       </c>
       <c r="F43" s="3">
-        <v>125700</v>
+        <v>121800</v>
       </c>
       <c r="G43" s="3">
-        <v>143100</v>
+        <v>138700</v>
       </c>
       <c r="H43" s="3">
-        <v>156200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>164600</v>
+        <v>151300</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3104,42 +3197,42 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>161100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>171300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>171300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>166500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>150400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>127100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3152,28 +3245,31 @@
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>30100</v>
       </c>
       <c r="E44" s="3">
-        <v>28500</v>
+        <v>27700</v>
       </c>
       <c r="F44" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="G44" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="H44" s="3">
-        <v>16800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>16600</v>
+        <v>16300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3181,42 +3277,42 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>17400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>17300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>23200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>21200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>9100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>15600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3229,28 +3325,31 @@
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>21300</v>
       </c>
       <c r="E45" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="G45" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H45" s="3">
-        <v>12100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>11400</v>
+        <v>11700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3258,42 +3357,42 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>10800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>13700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>8200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3306,28 +3405,31 @@
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>275500</v>
       </c>
       <c r="E46" s="3">
-        <v>257000</v>
+        <v>249000</v>
       </c>
       <c r="F46" s="3">
-        <v>222300</v>
+        <v>215500</v>
       </c>
       <c r="G46" s="3">
-        <v>230200</v>
+        <v>223100</v>
       </c>
       <c r="H46" s="3">
-        <v>215000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>205900</v>
+        <v>208400</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3335,42 +3437,42 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>221800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>214400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>231500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>217300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>197500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>180400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3383,71 +3485,74 @@
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>6000</v>
       </c>
       <c r="E47" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F47" s="3">
         <v>2700</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>2100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>2000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>1400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3460,28 +3565,31 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>264300</v>
       </c>
       <c r="E48" s="3">
-        <v>235300</v>
+        <v>228100</v>
       </c>
       <c r="F48" s="3">
-        <v>220100</v>
+        <v>213300</v>
       </c>
       <c r="G48" s="3">
-        <v>205800</v>
+        <v>199500</v>
       </c>
       <c r="H48" s="3">
-        <v>202400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>179200</v>
+        <v>196100</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3489,42 +3597,42 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>208800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>186600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>116800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>95800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>101300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>92200</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3537,28 +3645,31 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>7900</v>
       </c>
       <c r="E49" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="F49" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="G49" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H49" s="3">
         <v>8500</v>
       </c>
-      <c r="H49" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8800</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3566,42 +3677,42 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>9100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>9100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>8100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>8200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>7800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +3885,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>35600</v>
       </c>
       <c r="E52" s="3">
-        <v>25400</v>
+        <v>24700</v>
       </c>
       <c r="F52" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="G52" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="H52" s="3">
-        <v>13600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>18000</v>
+        <v>13200</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3797,42 +3917,42 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>14100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>18800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>46300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>37800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>34400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>33800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4045,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>589300</v>
       </c>
       <c r="E54" s="3">
-        <v>533900</v>
+        <v>517300</v>
       </c>
       <c r="F54" s="3">
-        <v>473700</v>
+        <v>459000</v>
       </c>
       <c r="G54" s="3">
-        <v>460600</v>
+        <v>446400</v>
       </c>
       <c r="H54" s="3">
-        <v>442600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>414500</v>
+        <v>428900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3951,42 +4077,42 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>456600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>431500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>405000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>361100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>343400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>315500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>141900</v>
       </c>
       <c r="E57" s="3">
-        <v>149400</v>
+        <v>144700</v>
       </c>
       <c r="F57" s="3">
-        <v>119200</v>
+        <v>115500</v>
       </c>
       <c r="G57" s="3">
-        <v>125300</v>
+        <v>121400</v>
       </c>
       <c r="H57" s="3">
-        <v>117200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>104600</v>
+        <v>113600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -4086,42 +4217,42 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>121000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>108900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>110300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>110100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>103300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>87000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4134,28 +4265,31 @@
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>96700</v>
+        <v>99800</v>
       </c>
       <c r="E58" s="3">
-        <v>92400</v>
+        <v>89500</v>
       </c>
       <c r="F58" s="3">
-        <v>81700</v>
+        <v>79100</v>
       </c>
       <c r="G58" s="3">
-        <v>79800</v>
+        <v>77300</v>
       </c>
       <c r="H58" s="3">
-        <v>76900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>67300</v>
+        <v>74500</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4163,42 +4297,42 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>79400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>70000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>67000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>56900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>51700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>58700</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4211,28 +4345,31 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>22400</v>
       </c>
       <c r="E59" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="F59" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="G59" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="H59" s="3">
-        <v>19000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>23900</v>
+        <v>18400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4240,42 +4377,42 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>24900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>18000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>23500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>16500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>14800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4288,28 +4425,31 @@
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>264200</v>
       </c>
       <c r="E60" s="3">
-        <v>266500</v>
+        <v>258300</v>
       </c>
       <c r="F60" s="3">
-        <v>218600</v>
+        <v>211900</v>
       </c>
       <c r="G60" s="3">
-        <v>227100</v>
+        <v>220100</v>
       </c>
       <c r="H60" s="3">
-        <v>213200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>195800</v>
+        <v>206600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4317,42 +4457,42 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>219900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>203800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>195300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>190400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>171500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>160400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4365,28 +4505,31 @@
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100400</v>
+        <v>118700</v>
       </c>
       <c r="E61" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="F61" s="3">
-        <v>70000</v>
+        <v>67800</v>
       </c>
       <c r="G61" s="3">
-        <v>65500</v>
+        <v>63500</v>
       </c>
       <c r="H61" s="3">
-        <v>67300</v>
+        <v>65200</v>
       </c>
       <c r="I61" s="3">
-        <v>63100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4395,41 +4538,41 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>69500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>65700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>45400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>30400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>29600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>24300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,28 +4585,31 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>25100</v>
       </c>
       <c r="E62" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="F62" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="G62" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="H62" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>13800</v>
+        <v>14900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4471,42 +4617,42 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>15900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>14300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>18500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>17700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>15900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>12300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,28 +4905,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>408100</v>
       </c>
       <c r="E66" s="3">
-        <v>354900</v>
+        <v>343900</v>
       </c>
       <c r="F66" s="3">
-        <v>303600</v>
+        <v>294200</v>
       </c>
       <c r="G66" s="3">
-        <v>308100</v>
+        <v>298500</v>
       </c>
       <c r="H66" s="3">
-        <v>295900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>272700</v>
+        <v>286800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -4779,42 +4937,42 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>305300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>283900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>259200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>238500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>217000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>197000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5335,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-89100</v>
       </c>
       <c r="E72" s="3">
-        <v>-99400</v>
+        <v>-96400</v>
       </c>
       <c r="F72" s="3">
-        <v>-108400</v>
+        <v>-105000</v>
       </c>
       <c r="G72" s="3">
-        <v>-122000</v>
+        <v>-118200</v>
       </c>
       <c r="H72" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-132200</v>
+        <v>-124000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -5193,42 +5367,42 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-132000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-137700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-141100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-146000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-157800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-165500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,28 +5655,31 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>188300</v>
+        <v>181200</v>
       </c>
       <c r="E76" s="3">
-        <v>179000</v>
+        <v>173400</v>
       </c>
       <c r="F76" s="3">
-        <v>170100</v>
+        <v>164800</v>
       </c>
       <c r="G76" s="3">
-        <v>152600</v>
+        <v>147800</v>
       </c>
       <c r="H76" s="3">
-        <v>146700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>141800</v>
+        <v>142100</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -5501,42 +5687,42 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>151300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>147600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>145800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>122500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>126400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>118600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>2500</v>
       </c>
       <c r="X81" s="3">
         <v>2500</v>
       </c>
       <c r="Y81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z81" s="3">
         <v>2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,34 +6012,35 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
@@ -5849,8 +6048,8 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,34 +6490,37 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
@@ -6311,8 +6528,8 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,34 +6602,35 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,34 +6840,37 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -6648,8 +6878,8 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,34 +7270,37 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
@@ -7062,8 +7308,8 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7104,34 +7350,37 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -7139,8 +7388,8 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7181,34 +7430,37 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
@@ -7216,8 +7468,8 @@
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>96500</v>
+        <v>95600</v>
       </c>
       <c r="E8" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="F8" s="3">
-        <v>84900</v>
+        <v>84100</v>
       </c>
       <c r="G8" s="3">
-        <v>87500</v>
+        <v>86600</v>
       </c>
       <c r="H8" s="3">
-        <v>80800</v>
+        <v>80000</v>
       </c>
       <c r="I8" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="J8" s="3">
-        <v>78900</v>
+        <v>78100</v>
       </c>
       <c r="K8" s="3">
         <v>76200</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="E9" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="F9" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
       <c r="G9" s="3">
-        <v>51800</v>
+        <v>51300</v>
       </c>
       <c r="H9" s="3">
-        <v>97700</v>
+        <v>96800</v>
       </c>
       <c r="I9" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="J9" s="3">
-        <v>49300</v>
+        <v>48800</v>
       </c>
       <c r="K9" s="3">
         <v>47100</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="E10" s="3">
-        <v>34200</v>
+        <v>33800</v>
       </c>
       <c r="F10" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="G10" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="H10" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="I10" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="J10" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="K10" s="3">
         <v>29100</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="F15" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="G15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H15" s="3">
         <v>9900</v>
       </c>
-      <c r="H15" s="3">
-        <v>10000</v>
-      </c>
       <c r="I15" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J15" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="K15" s="3">
         <v>8600</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88100</v>
+        <v>87200</v>
       </c>
       <c r="E17" s="3">
-        <v>76000</v>
+        <v>75200</v>
       </c>
       <c r="F17" s="3">
-        <v>75500</v>
+        <v>74700</v>
       </c>
       <c r="G17" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="H17" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="I17" s="3">
-        <v>76900</v>
+        <v>76200</v>
       </c>
       <c r="J17" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="K17" s="3">
         <v>69000</v>
@@ -1479,22 +1479,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E18" s="3">
         <v>9200</v>
       </c>
       <c r="F18" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G18" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H18" s="3">
         <v>8300</v>
       </c>
       <c r="I18" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J18" s="3">
         <v>7700</v>
@@ -1592,10 +1592,10 @@
         <v>-3500</v>
       </c>
       <c r="E20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3500</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
@@ -1761,7 +1761,7 @@
         <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1832,13 +1832,13 @@
         <v>4900</v>
       </c>
       <c r="E23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F23" s="3">
         <v>5900</v>
       </c>
-      <c r="F23" s="3">
-        <v>6000</v>
-      </c>
       <c r="G23" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H23" s="3">
         <v>5500</v>
@@ -1909,13 +1909,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
         <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G24" s="3">
         <v>1300</v>
@@ -1927,7 +1927,7 @@
         <v>-4100</v>
       </c>
       <c r="J24" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
@@ -2072,22 +2072,22 @@
         <v>3400</v>
       </c>
       <c r="E26" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F26" s="3">
         <v>4300</v>
       </c>
       <c r="G26" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H26" s="3">
         <v>4100</v>
       </c>
       <c r="I26" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J26" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K26" s="3">
         <v>3300</v>
@@ -2152,22 +2152,22 @@
         <v>3400</v>
       </c>
       <c r="E27" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F27" s="3">
         <v>4300</v>
       </c>
       <c r="G27" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H27" s="3">
         <v>4100</v>
       </c>
       <c r="I27" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J27" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K27" s="3">
         <v>3300</v>
@@ -2552,10 +2552,10 @@
         <v>3500</v>
       </c>
       <c r="E32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>3400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3500</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
@@ -2632,22 +2632,22 @@
         <v>3400</v>
       </c>
       <c r="E33" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F33" s="3">
         <v>4300</v>
       </c>
       <c r="G33" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H33" s="3">
         <v>4100</v>
       </c>
       <c r="I33" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J33" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K33" s="3">
         <v>3300</v>
@@ -2792,22 +2792,22 @@
         <v>3400</v>
       </c>
       <c r="E35" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
         <v>4300</v>
       </c>
       <c r="G35" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H35" s="3">
         <v>4100</v>
       </c>
       <c r="I35" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J35" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K35" s="3">
         <v>3300</v>
@@ -3014,19 +3014,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47400</v>
+        <v>46900</v>
       </c>
       <c r="E41" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="F41" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="G41" s="3">
-        <v>48600</v>
+        <v>48200</v>
       </c>
       <c r="H41" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -3174,19 +3174,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176700</v>
+        <v>175000</v>
       </c>
       <c r="E43" s="3">
-        <v>177600</v>
+        <v>175900</v>
       </c>
       <c r="F43" s="3">
-        <v>121800</v>
+        <v>120600</v>
       </c>
       <c r="G43" s="3">
-        <v>138700</v>
+        <v>137300</v>
       </c>
       <c r="H43" s="3">
-        <v>151300</v>
+        <v>149900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3254,19 +3254,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="E44" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="F44" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G44" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="H44" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3334,19 +3334,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="F45" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="G45" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -3414,19 +3414,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275500</v>
+        <v>272900</v>
       </c>
       <c r="E46" s="3">
-        <v>249000</v>
+        <v>246700</v>
       </c>
       <c r="F46" s="3">
-        <v>215500</v>
+        <v>213400</v>
       </c>
       <c r="G46" s="3">
-        <v>223100</v>
+        <v>221000</v>
       </c>
       <c r="H46" s="3">
-        <v>208400</v>
+        <v>206400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -3494,19 +3494,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E47" s="3">
         <v>5700</v>
       </c>
       <c r="F47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G47" s="3">
         <v>2600</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3574,19 +3574,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>264300</v>
+        <v>261700</v>
       </c>
       <c r="E48" s="3">
-        <v>228100</v>
+        <v>225900</v>
       </c>
       <c r="F48" s="3">
-        <v>213300</v>
+        <v>211300</v>
       </c>
       <c r="G48" s="3">
-        <v>199500</v>
+        <v>197600</v>
       </c>
       <c r="H48" s="3">
-        <v>196100</v>
+        <v>194300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3657,16 +3657,16 @@
         <v>7900</v>
       </c>
       <c r="E49" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F49" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G49" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H49" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3894,19 +3894,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="E52" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="F52" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="G52" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="H52" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -4054,19 +4054,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>589300</v>
+        <v>583600</v>
       </c>
       <c r="E54" s="3">
-        <v>517300</v>
+        <v>512400</v>
       </c>
       <c r="F54" s="3">
-        <v>459000</v>
+        <v>454600</v>
       </c>
       <c r="G54" s="3">
-        <v>446400</v>
+        <v>442100</v>
       </c>
       <c r="H54" s="3">
-        <v>428900</v>
+        <v>424800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -4194,19 +4194,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>141900</v>
+        <v>140600</v>
       </c>
       <c r="E57" s="3">
-        <v>144700</v>
+        <v>143400</v>
       </c>
       <c r="F57" s="3">
-        <v>115500</v>
+        <v>114400</v>
       </c>
       <c r="G57" s="3">
-        <v>121400</v>
+        <v>120200</v>
       </c>
       <c r="H57" s="3">
-        <v>113600</v>
+        <v>112500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -4274,19 +4274,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>99800</v>
+        <v>98900</v>
       </c>
       <c r="E58" s="3">
-        <v>89500</v>
+        <v>88600</v>
       </c>
       <c r="F58" s="3">
-        <v>79100</v>
+        <v>78400</v>
       </c>
       <c r="G58" s="3">
-        <v>77300</v>
+        <v>76500</v>
       </c>
       <c r="H58" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4354,19 +4354,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="E59" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="F59" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="G59" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="H59" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -4434,19 +4434,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>264200</v>
+        <v>261700</v>
       </c>
       <c r="E60" s="3">
-        <v>258300</v>
+        <v>255800</v>
       </c>
       <c r="F60" s="3">
-        <v>211900</v>
+        <v>209800</v>
       </c>
       <c r="G60" s="3">
-        <v>220100</v>
+        <v>218000</v>
       </c>
       <c r="H60" s="3">
-        <v>206600</v>
+        <v>204600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -4514,19 +4514,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118700</v>
+        <v>117600</v>
       </c>
       <c r="E61" s="3">
-        <v>64900</v>
+        <v>64200</v>
       </c>
       <c r="F61" s="3">
-        <v>67800</v>
+        <v>67100</v>
       </c>
       <c r="G61" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="H61" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4594,19 +4594,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="E62" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="F62" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="G62" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H62" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4914,19 +4914,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>408100</v>
+        <v>404100</v>
       </c>
       <c r="E66" s="3">
-        <v>343900</v>
+        <v>340600</v>
       </c>
       <c r="F66" s="3">
-        <v>294200</v>
+        <v>291400</v>
       </c>
       <c r="G66" s="3">
-        <v>298500</v>
+        <v>295700</v>
       </c>
       <c r="H66" s="3">
-        <v>286800</v>
+        <v>284000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -5344,19 +5344,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-89100</v>
+        <v>-88300</v>
       </c>
       <c r="E72" s="3">
-        <v>-96400</v>
+        <v>-95400</v>
       </c>
       <c r="F72" s="3">
-        <v>-105000</v>
+        <v>-104000</v>
       </c>
       <c r="G72" s="3">
-        <v>-118200</v>
+        <v>-117100</v>
       </c>
       <c r="H72" s="3">
-        <v>-124000</v>
+        <v>-122800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -5664,19 +5664,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>181200</v>
+        <v>179500</v>
       </c>
       <c r="E76" s="3">
-        <v>173400</v>
+        <v>171800</v>
       </c>
       <c r="F76" s="3">
-        <v>164800</v>
+        <v>163300</v>
       </c>
       <c r="G76" s="3">
-        <v>147800</v>
+        <v>146400</v>
       </c>
       <c r="H76" s="3">
-        <v>142100</v>
+        <v>140800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -5912,22 +5912,22 @@
         <v>3400</v>
       </c>
       <c r="E81" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F81" s="3">
         <v>4300</v>
       </c>
       <c r="G81" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H81" s="3">
         <v>4100</v>
       </c>
       <c r="I81" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J81" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K81" s="3">
         <v>3300</v>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>95600</v>
+        <v>94000</v>
       </c>
       <c r="E8" s="3">
-        <v>84400</v>
+        <v>83000</v>
       </c>
       <c r="F8" s="3">
-        <v>84100</v>
+        <v>82700</v>
       </c>
       <c r="G8" s="3">
-        <v>86600</v>
+        <v>85200</v>
       </c>
       <c r="H8" s="3">
-        <v>80000</v>
+        <v>78600</v>
       </c>
       <c r="I8" s="3">
-        <v>85100</v>
+        <v>83600</v>
       </c>
       <c r="J8" s="3">
-        <v>78100</v>
+        <v>76800</v>
       </c>
       <c r="K8" s="3">
         <v>76200</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60900</v>
+        <v>59900</v>
       </c>
       <c r="E9" s="3">
-        <v>50500</v>
+        <v>49700</v>
       </c>
       <c r="F9" s="3">
-        <v>48700</v>
+        <v>47900</v>
       </c>
       <c r="G9" s="3">
-        <v>51300</v>
+        <v>50400</v>
       </c>
       <c r="H9" s="3">
-        <v>96800</v>
+        <v>95200</v>
       </c>
       <c r="I9" s="3">
-        <v>49800</v>
+        <v>49000</v>
       </c>
       <c r="J9" s="3">
-        <v>48800</v>
+        <v>48000</v>
       </c>
       <c r="K9" s="3">
         <v>47100</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>34800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>34800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="I10" s="3">
         <v>34700</v>
       </c>
-      <c r="E10" s="3">
-        <v>33800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>35400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>35400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>35300</v>
-      </c>
       <c r="J10" s="3">
-        <v>29300</v>
+        <v>28800</v>
       </c>
       <c r="K10" s="3">
         <v>29100</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="E15" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="F15" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="G15" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
-        <v>9900</v>
-      </c>
       <c r="I15" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J15" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K15" s="3">
         <v>8600</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87200</v>
+        <v>85700</v>
       </c>
       <c r="E17" s="3">
-        <v>75200</v>
+        <v>74000</v>
       </c>
       <c r="F17" s="3">
-        <v>74700</v>
+        <v>73500</v>
       </c>
       <c r="G17" s="3">
-        <v>77800</v>
+        <v>76500</v>
       </c>
       <c r="H17" s="3">
-        <v>71700</v>
+        <v>70500</v>
       </c>
       <c r="I17" s="3">
-        <v>76200</v>
+        <v>74900</v>
       </c>
       <c r="J17" s="3">
-        <v>70500</v>
+        <v>69300</v>
       </c>
       <c r="K17" s="3">
         <v>69000</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="E18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>9200</v>
       </c>
-      <c r="F18" s="3">
-        <v>9400</v>
-      </c>
       <c r="G18" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H18" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="I18" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="J18" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="K18" s="3">
         <v>7200</v>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E20" s="3">
         <v>-3300</v>
@@ -1607,7 +1607,7 @@
         <v>-2400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J23" s="3">
         <v>4900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5000</v>
       </c>
       <c r="K23" s="3">
         <v>5400</v>
@@ -1912,7 +1912,7 @@
         <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F24" s="3">
         <v>1600</v>
@@ -1924,7 +1924,7 @@
         <v>1400</v>
       </c>
       <c r="I24" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J24" s="3">
         <v>1800</v>
@@ -2069,22 +2069,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E26" s="3">
         <v>2800</v>
       </c>
       <c r="F26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
-        <v>4400</v>
-      </c>
       <c r="H26" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="J26" s="3">
         <v>3100</v>
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E27" s="3">
         <v>2800</v>
       </c>
       <c r="F27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
-        <v>4400</v>
-      </c>
       <c r="H27" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I27" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="J27" s="3">
         <v>3100</v>
@@ -2549,7 +2549,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E32" s="3">
         <v>3300</v>
@@ -2567,7 +2567,7 @@
         <v>2400</v>
       </c>
       <c r="J32" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -2629,22 +2629,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E33" s="3">
         <v>2800</v>
       </c>
       <c r="F33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
-        <v>4400</v>
-      </c>
       <c r="H33" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I33" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="J33" s="3">
         <v>3100</v>
@@ -2789,22 +2789,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E35" s="3">
         <v>2800</v>
       </c>
       <c r="F35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
-        <v>4400</v>
-      </c>
       <c r="H35" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I35" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="J35" s="3">
         <v>3100</v>
@@ -3014,19 +3014,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46900</v>
+        <v>46100</v>
       </c>
       <c r="E41" s="3">
-        <v>24200</v>
+        <v>23800</v>
       </c>
       <c r="F41" s="3">
-        <v>63300</v>
+        <v>62200</v>
       </c>
       <c r="G41" s="3">
-        <v>48200</v>
+        <v>47400</v>
       </c>
       <c r="H41" s="3">
-        <v>28700</v>
+        <v>28300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -3174,19 +3174,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175000</v>
+        <v>172000</v>
       </c>
       <c r="E43" s="3">
-        <v>175900</v>
+        <v>172900</v>
       </c>
       <c r="F43" s="3">
-        <v>120600</v>
+        <v>118600</v>
       </c>
       <c r="G43" s="3">
-        <v>137300</v>
+        <v>135000</v>
       </c>
       <c r="H43" s="3">
-        <v>149900</v>
+        <v>147400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3254,19 +3254,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29800</v>
+        <v>29300</v>
       </c>
       <c r="E44" s="3">
-        <v>27400</v>
+        <v>26900</v>
       </c>
       <c r="F44" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="G44" s="3">
-        <v>22900</v>
+        <v>22500</v>
       </c>
       <c r="H44" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3334,19 +3334,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="E45" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="F45" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="H45" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -3414,19 +3414,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>272900</v>
+        <v>268300</v>
       </c>
       <c r="E46" s="3">
-        <v>246700</v>
+        <v>242500</v>
       </c>
       <c r="F46" s="3">
-        <v>213400</v>
+        <v>209800</v>
       </c>
       <c r="G46" s="3">
-        <v>221000</v>
+        <v>217200</v>
       </c>
       <c r="H46" s="3">
-        <v>206400</v>
+        <v>202900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -3494,16 +3494,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E47" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F47" s="3">
         <v>2600</v>
       </c>
       <c r="G47" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H47" s="3">
         <v>2600</v>
@@ -3574,19 +3574,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>261700</v>
+        <v>257300</v>
       </c>
       <c r="E48" s="3">
-        <v>225900</v>
+        <v>222000</v>
       </c>
       <c r="F48" s="3">
-        <v>211300</v>
+        <v>207700</v>
       </c>
       <c r="G48" s="3">
-        <v>197600</v>
+        <v>194200</v>
       </c>
       <c r="H48" s="3">
-        <v>194300</v>
+        <v>191000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3654,19 +3654,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E49" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F49" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="G49" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H49" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3894,19 +3894,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35300</v>
+        <v>34700</v>
       </c>
       <c r="E52" s="3">
-        <v>24400</v>
+        <v>24000</v>
       </c>
       <c r="F52" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="G52" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="H52" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -4054,19 +4054,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>583600</v>
+        <v>573800</v>
       </c>
       <c r="E54" s="3">
-        <v>512400</v>
+        <v>503700</v>
       </c>
       <c r="F54" s="3">
-        <v>454600</v>
+        <v>446900</v>
       </c>
       <c r="G54" s="3">
-        <v>442100</v>
+        <v>434600</v>
       </c>
       <c r="H54" s="3">
-        <v>424800</v>
+        <v>417600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -4194,19 +4194,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>140600</v>
+        <v>138200</v>
       </c>
       <c r="E57" s="3">
-        <v>143400</v>
+        <v>140900</v>
       </c>
       <c r="F57" s="3">
-        <v>114400</v>
+        <v>112400</v>
       </c>
       <c r="G57" s="3">
-        <v>120200</v>
+        <v>118200</v>
       </c>
       <c r="H57" s="3">
-        <v>112500</v>
+        <v>110600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -4274,19 +4274,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>98900</v>
+        <v>97200</v>
       </c>
       <c r="E58" s="3">
-        <v>88600</v>
+        <v>87100</v>
       </c>
       <c r="F58" s="3">
-        <v>78400</v>
+        <v>77000</v>
       </c>
       <c r="G58" s="3">
-        <v>76500</v>
+        <v>75200</v>
       </c>
       <c r="H58" s="3">
-        <v>73800</v>
+        <v>72600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4354,19 +4354,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="E59" s="3">
-        <v>23800</v>
+        <v>23400</v>
       </c>
       <c r="F59" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="G59" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="H59" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -4434,19 +4434,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>261700</v>
+        <v>257300</v>
       </c>
       <c r="E60" s="3">
-        <v>255800</v>
+        <v>251500</v>
       </c>
       <c r="F60" s="3">
-        <v>209800</v>
+        <v>206300</v>
       </c>
       <c r="G60" s="3">
-        <v>218000</v>
+        <v>214300</v>
       </c>
       <c r="H60" s="3">
-        <v>204600</v>
+        <v>201100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -4514,19 +4514,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>117600</v>
+        <v>115600</v>
       </c>
       <c r="E61" s="3">
-        <v>64200</v>
+        <v>63100</v>
       </c>
       <c r="F61" s="3">
-        <v>67100</v>
+        <v>66000</v>
       </c>
       <c r="G61" s="3">
-        <v>62900</v>
+        <v>61800</v>
       </c>
       <c r="H61" s="3">
-        <v>64600</v>
+        <v>63500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4594,19 +4594,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24800</v>
+        <v>24400</v>
       </c>
       <c r="E62" s="3">
-        <v>20600</v>
+        <v>20200</v>
       </c>
       <c r="F62" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="G62" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="H62" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4914,19 +4914,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>404100</v>
+        <v>397300</v>
       </c>
       <c r="E66" s="3">
-        <v>340600</v>
+        <v>334800</v>
       </c>
       <c r="F66" s="3">
-        <v>291400</v>
+        <v>286500</v>
       </c>
       <c r="G66" s="3">
-        <v>295700</v>
+        <v>290700</v>
       </c>
       <c r="H66" s="3">
-        <v>284000</v>
+        <v>279200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -5344,19 +5344,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88300</v>
+        <v>-86800</v>
       </c>
       <c r="E72" s="3">
-        <v>-95400</v>
+        <v>-93800</v>
       </c>
       <c r="F72" s="3">
-        <v>-104000</v>
+        <v>-102300</v>
       </c>
       <c r="G72" s="3">
-        <v>-117100</v>
+        <v>-115100</v>
       </c>
       <c r="H72" s="3">
-        <v>-122800</v>
+        <v>-120700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -5664,19 +5664,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>179500</v>
+        <v>176500</v>
       </c>
       <c r="E76" s="3">
-        <v>171800</v>
+        <v>168900</v>
       </c>
       <c r="F76" s="3">
-        <v>163300</v>
+        <v>160500</v>
       </c>
       <c r="G76" s="3">
-        <v>146400</v>
+        <v>143900</v>
       </c>
       <c r="H76" s="3">
-        <v>140800</v>
+        <v>138400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -5909,22 +5909,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E81" s="3">
         <v>2800</v>
       </c>
       <c r="F81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
-        <v>4400</v>
-      </c>
       <c r="H81" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I81" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="J81" s="3">
         <v>3100</v>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,385 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>94000</v>
+        <v>107100</v>
       </c>
       <c r="E8" s="3">
-        <v>83000</v>
+        <v>96000</v>
       </c>
       <c r="F8" s="3">
-        <v>82700</v>
+        <v>93500</v>
       </c>
       <c r="G8" s="3">
-        <v>85200</v>
+        <v>82300</v>
       </c>
       <c r="H8" s="3">
-        <v>78600</v>
+        <v>82000</v>
       </c>
       <c r="I8" s="3">
+        <v>84500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K8" s="3">
         <v>83600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>76800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>76200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>68700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>78500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>78100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>75800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>76100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>77600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>72800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>65700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>85100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>73400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>68000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>65900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>72100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>63900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>60500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>59900</v>
+        <v>69100</v>
       </c>
       <c r="E9" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>118700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>49300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>47500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>47100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>81100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>46200</v>
+      </c>
+      <c r="P9" s="3">
         <v>49700</v>
       </c>
-      <c r="F9" s="3">
-        <v>47900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>95200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>49000</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="Q9" s="3">
+        <v>48100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>98200</v>
+      </c>
+      <c r="S9" s="3">
         <v>48000</v>
       </c>
-      <c r="K9" s="3">
-        <v>47100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>81100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>46200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>49700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>48100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>98200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>48000</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>51100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>45800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>39900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>57500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>48700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>43100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>40600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>46800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>41400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>38400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34100</v>
+        <v>38000</v>
       </c>
       <c r="E10" s="3">
-        <v>33300</v>
+        <v>35700</v>
       </c>
       <c r="F10" s="3">
-        <v>34800</v>
+        <v>-25200</v>
       </c>
       <c r="G10" s="3">
-        <v>34800</v>
+        <v>33000</v>
       </c>
       <c r="H10" s="3">
-        <v>-16500</v>
+        <v>34500</v>
       </c>
       <c r="I10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K10" s="3">
         <v>34700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-12400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>30300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>28800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>30000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>28100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>26500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>27000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>25800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>27600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>24700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>24900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>25300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>25300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>22400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>22100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,26 +1240,32 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1238,11 +1278,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1286,88 +1326,100 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11300</v>
+        <v>13200</v>
       </c>
       <c r="E15" s="3">
-        <v>10400</v>
+        <v>11600</v>
       </c>
       <c r="F15" s="3">
-        <v>10200</v>
+        <v>11200</v>
       </c>
       <c r="G15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I15" s="3">
         <v>9600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="I15" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>8600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>8600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>5300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>5000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>5100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>5400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>5200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>5600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>7400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>6700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>6100</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>6000</v>
       </c>
       <c r="AB15" s="3">
         <v>6100</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85700</v>
+        <v>100500</v>
       </c>
       <c r="E17" s="3">
-        <v>74000</v>
+        <v>88900</v>
       </c>
       <c r="F17" s="3">
-        <v>73500</v>
+        <v>85400</v>
       </c>
       <c r="G17" s="3">
-        <v>76500</v>
+        <v>73400</v>
       </c>
       <c r="H17" s="3">
+        <v>72900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>75800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>74900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>69300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>69000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>62200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>70400</v>
+      </c>
+      <c r="P17" s="3">
+        <v>71800</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>70800</v>
+      </c>
+      <c r="R17" s="3">
         <v>70500</v>
       </c>
-      <c r="I17" s="3">
-        <v>74900</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="S17" s="3">
         <v>69300</v>
       </c>
-      <c r="K17" s="3">
-        <v>69000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>62200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>70400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>71800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>70800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>70500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>69300</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>71000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>67200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>60300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>79500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>68500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>64100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>62000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>65300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>59900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>57200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F18" s="3">
         <v>8200</v>
       </c>
-      <c r="E18" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9200</v>
-      </c>
       <c r="G18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="H18" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>5700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>4900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3900</v>
-      </c>
-      <c r="X18" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>6900</v>
       </c>
       <c r="Z18" s="3">
         <v>3900</v>
       </c>
       <c r="AA18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AC18" s="3">
         <v>3300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1649,96 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="R20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
-        <v>900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,216 +1817,234 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="3">
         <v>1100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M23" s="3">
         <v>5400</v>
       </c>
-      <c r="I23" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1974,17 +2066,23 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1800</v>
       </c>
       <c r="N26" s="3">
         <v>2200</v>
       </c>
       <c r="O26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1800</v>
       </c>
       <c r="N27" s="3">
         <v>2200</v>
       </c>
       <c r="O27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>3700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2677,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="R32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>4300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1800</v>
       </c>
       <c r="N33" s="3">
         <v>2200</v>
       </c>
       <c r="O33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1800</v>
       </c>
       <c r="N35" s="3">
         <v>2200</v>
       </c>
       <c r="O35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,25 +3180,27 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46100</v>
+        <v>17500</v>
       </c>
       <c r="E41" s="3">
-        <v>23800</v>
+        <v>45700</v>
       </c>
       <c r="F41" s="3">
-        <v>62200</v>
+        <v>23600</v>
       </c>
       <c r="G41" s="3">
-        <v>47400</v>
+        <v>61700</v>
       </c>
       <c r="H41" s="3">
-        <v>28300</v>
+        <v>47000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -3040,45 +3214,45 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>30900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>13900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>26200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>15800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
         <v>28000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>29500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3088,8 +3262,14 @@
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,25 +3348,31 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>172000</v>
+        <v>195100</v>
       </c>
       <c r="E43" s="3">
-        <v>172900</v>
+        <v>170600</v>
       </c>
       <c r="F43" s="3">
-        <v>118600</v>
+        <v>171500</v>
       </c>
       <c r="G43" s="3">
-        <v>135000</v>
+        <v>117600</v>
       </c>
       <c r="H43" s="3">
-        <v>147400</v>
+        <v>133900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3200,14 +3386,14 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>161100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
-        <v>171300</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
@@ -3219,26 +3405,26 @@
         <v>8</v>
       </c>
       <c r="S43" s="3">
+        <v>171300</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>166500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3">
         <v>150400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>127100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3248,25 +3434,31 @@
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29300</v>
+        <v>38700</v>
       </c>
       <c r="E44" s="3">
-        <v>26900</v>
+        <v>29100</v>
       </c>
       <c r="F44" s="3">
-        <v>17200</v>
+        <v>26700</v>
       </c>
       <c r="G44" s="3">
-        <v>22500</v>
+        <v>17100</v>
       </c>
       <c r="H44" s="3">
-        <v>15900</v>
+        <v>22400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3280,45 +3472,45 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>17400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>17300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>23200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>21200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>9100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>15600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3328,25 +3520,31 @@
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20800</v>
+        <v>28100</v>
       </c>
       <c r="E45" s="3">
-        <v>18900</v>
+        <v>20600</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>18700</v>
       </c>
       <c r="G45" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="H45" s="3">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -3360,45 +3558,45 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>11900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>10800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>13700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>10000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3">
         <v>8200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3408,25 +3606,31 @@
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268300</v>
+        <v>279400</v>
       </c>
       <c r="E46" s="3">
-        <v>242500</v>
+        <v>266100</v>
       </c>
       <c r="F46" s="3">
-        <v>209800</v>
+        <v>240500</v>
       </c>
       <c r="G46" s="3">
-        <v>217200</v>
+        <v>208100</v>
       </c>
       <c r="H46" s="3">
-        <v>202900</v>
+        <v>215400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
@@ -3440,45 +3644,45 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>221800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>214400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>231500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3">
         <v>217300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="3">
         <v>197500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3">
         <v>180400</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3488,77 +3692,83 @@
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5800</v>
       </c>
-      <c r="E47" s="3">
-        <v>5600</v>
-      </c>
       <c r="F47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>2100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>2000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3568,25 +3778,31 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>257300</v>
+        <v>278100</v>
       </c>
       <c r="E48" s="3">
-        <v>222000</v>
+        <v>255200</v>
       </c>
       <c r="F48" s="3">
-        <v>207700</v>
+        <v>220200</v>
       </c>
       <c r="G48" s="3">
-        <v>194200</v>
+        <v>206000</v>
       </c>
       <c r="H48" s="3">
-        <v>191000</v>
+        <v>192600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -3600,45 +3816,45 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>208800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>186600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>116800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>95800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>101300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>92200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3648,25 +3864,31 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E49" s="3">
         <v>7700</v>
       </c>
-      <c r="E49" s="3">
-        <v>9600</v>
-      </c>
       <c r="F49" s="3">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="G49" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="H49" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3680,8 +3902,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>9100</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3693,32 +3915,32 @@
         <v>8</v>
       </c>
       <c r="Q49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>7800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>8100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>8200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>7800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,25 +4122,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34700</v>
+        <v>48900</v>
       </c>
       <c r="E52" s="3">
-        <v>24000</v>
+        <v>34400</v>
       </c>
       <c r="F52" s="3">
-        <v>18400</v>
+        <v>23800</v>
       </c>
       <c r="G52" s="3">
-        <v>12600</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3920,45 +4160,45 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>14100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>18800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>46300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>37800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
         <v>34400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3">
         <v>33800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3968,8 +4208,14 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,25 +4294,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>573800</v>
+        <v>625300</v>
       </c>
       <c r="E54" s="3">
-        <v>503700</v>
+        <v>569100</v>
       </c>
       <c r="F54" s="3">
-        <v>446900</v>
+        <v>499600</v>
       </c>
       <c r="G54" s="3">
-        <v>434600</v>
+        <v>443300</v>
       </c>
       <c r="H54" s="3">
-        <v>417600</v>
+        <v>431000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -4080,45 +4332,45 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>456600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>431500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>405000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>361100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="3">
         <v>343400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3">
         <v>315500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4128,8 +4380,14 @@
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,25 +4448,27 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>138200</v>
+        <v>162600</v>
       </c>
       <c r="E57" s="3">
-        <v>140900</v>
+        <v>137100</v>
       </c>
       <c r="F57" s="3">
-        <v>112400</v>
+        <v>139800</v>
       </c>
       <c r="G57" s="3">
-        <v>118200</v>
+        <v>111500</v>
       </c>
       <c r="H57" s="3">
-        <v>110600</v>
+        <v>117200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
@@ -4220,45 +4482,45 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>121000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>108900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>110300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>110100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>103300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>87000</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4268,25 +4530,31 @@
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>97200</v>
+        <v>97800</v>
       </c>
       <c r="E58" s="3">
-        <v>87100</v>
+        <v>96400</v>
       </c>
       <c r="F58" s="3">
-        <v>77000</v>
+        <v>86400</v>
       </c>
       <c r="G58" s="3">
-        <v>75200</v>
+        <v>76400</v>
       </c>
       <c r="H58" s="3">
-        <v>72600</v>
+        <v>74600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4300,45 +4568,45 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>79400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>70000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>67000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>56900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>51700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>58700</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4348,77 +4616,83 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21800</v>
+        <v>25400</v>
       </c>
       <c r="E59" s="3">
-        <v>23400</v>
+        <v>21700</v>
       </c>
       <c r="F59" s="3">
-        <v>16800</v>
+        <v>23200</v>
       </c>
       <c r="G59" s="3">
-        <v>20900</v>
+        <v>16700</v>
       </c>
       <c r="H59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>18000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
-        <v>19600</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
-        <v>24900</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>18000</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>23500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>16500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>14800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4428,25 +4702,31 @@
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>257300</v>
+        <v>285800</v>
       </c>
       <c r="E60" s="3">
-        <v>251500</v>
+        <v>255200</v>
       </c>
       <c r="F60" s="3">
-        <v>206300</v>
+        <v>249400</v>
       </c>
       <c r="G60" s="3">
-        <v>214300</v>
+        <v>204600</v>
       </c>
       <c r="H60" s="3">
-        <v>201100</v>
+        <v>212500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
@@ -4460,45 +4740,45 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>219900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>203800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>195300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3">
         <v>190400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W60" s="3">
         <v>171500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3">
         <v>160400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4508,25 +4788,31 @@
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>115600</v>
+        <v>130600</v>
       </c>
       <c r="E61" s="3">
-        <v>63100</v>
+        <v>114700</v>
       </c>
       <c r="F61" s="3">
-        <v>66000</v>
+        <v>62600</v>
       </c>
       <c r="G61" s="3">
-        <v>61800</v>
+        <v>65500</v>
       </c>
       <c r="H61" s="3">
-        <v>63500</v>
+        <v>61300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4541,44 +4827,44 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>69500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>65700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>45400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>30400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>29600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>24300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4588,25 +4874,31 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24400</v>
+        <v>29400</v>
       </c>
       <c r="E62" s="3">
-        <v>20200</v>
+        <v>24200</v>
       </c>
       <c r="F62" s="3">
-        <v>14200</v>
+        <v>20100</v>
       </c>
       <c r="G62" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H62" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4620,45 +4912,45 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>14300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>18500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>17700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3">
         <v>15900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>12300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,25 +5218,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>397300</v>
+        <v>445800</v>
       </c>
       <c r="E66" s="3">
-        <v>334800</v>
+        <v>394000</v>
       </c>
       <c r="F66" s="3">
-        <v>286500</v>
+        <v>332100</v>
       </c>
       <c r="G66" s="3">
-        <v>290700</v>
+        <v>284100</v>
       </c>
       <c r="H66" s="3">
-        <v>279200</v>
+        <v>288300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -4940,45 +5256,45 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>305300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>283900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>259200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>238500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66" s="3">
         <v>217000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3">
         <v>197000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4988,8 +5304,14 @@
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,25 +5680,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-86800</v>
+        <v>-81400</v>
       </c>
       <c r="E72" s="3">
-        <v>-93800</v>
+        <v>-86100</v>
       </c>
       <c r="F72" s="3">
-        <v>-102300</v>
+        <v>-93100</v>
       </c>
       <c r="G72" s="3">
-        <v>-115100</v>
+        <v>-101400</v>
       </c>
       <c r="H72" s="3">
-        <v>-120700</v>
+        <v>-114200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -5370,45 +5718,45 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-132000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-137700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-141100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-146000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="3">
         <v>-157800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-165500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5418,8 +5766,14 @@
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,25 +6024,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>176500</v>
+        <v>179500</v>
       </c>
       <c r="E76" s="3">
-        <v>168900</v>
+        <v>175000</v>
       </c>
       <c r="F76" s="3">
-        <v>160500</v>
+        <v>167500</v>
       </c>
       <c r="G76" s="3">
-        <v>143900</v>
+        <v>159200</v>
       </c>
       <c r="H76" s="3">
-        <v>138400</v>
+        <v>142800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -5690,45 +6062,45 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>151300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>147600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>145800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>122500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W76" s="3">
         <v>126400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3">
         <v>118600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5738,8 +6110,14 @@
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1800</v>
       </c>
       <c r="N81" s="3">
         <v>2200</v>
       </c>
       <c r="O81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6039,23 +6437,23 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6093,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6921,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6519,23 +6953,23 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6573,8 +7007,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,49 +7043,51 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>-4475100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4885700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2488700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2621800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1134200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2111600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6683,8 +7125,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6869,23 +7329,23 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6923,8 +7383,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7759,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7299,23 +7791,23 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7353,8 +7845,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7379,23 +7877,23 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -7433,8 +7931,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7459,23 +7963,23 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7511,6 +8015,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -666,11 +666,10 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -707,22 +706,22 @@
         <v>45016</v>
       </c>
       <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44377</v>
       </c>
       <c r="K7" s="2">
         <v>44286</v>
@@ -790,25 +789,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>107100</v>
+        <v>106800</v>
       </c>
       <c r="E8" s="3">
+        <v>107600</v>
+      </c>
+      <c r="F8" s="3">
         <v>96000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>84500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>78000</v>
       </c>
       <c r="K8" s="3">
         <v>83600</v>
@@ -879,22 +878,22 @@
         <v>69100</v>
       </c>
       <c r="E9" s="3">
+        <v>69700</v>
+      </c>
+      <c r="F9" s="3">
         <v>60300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>94400</v>
       </c>
       <c r="K9" s="3">
         <v>49000</v>
@@ -962,25 +961,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38000</v>
+        <v>37700</v>
       </c>
       <c r="E10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F10" s="3">
         <v>35700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-25200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>34500</v>
       </c>
       <c r="I10" s="3">
         <v>34500</v>
       </c>
       <c r="J10" s="3">
-        <v>-16400</v>
+        <v>34500</v>
       </c>
       <c r="K10" s="3">
         <v>34700</v>
@@ -1251,8 +1250,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1260,14 +1259,14 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1341,22 +1340,22 @@
         <v>13200</v>
       </c>
       <c r="E15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F15" s="3">
         <v>11600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9700</v>
       </c>
       <c r="K15" s="3">
         <v>9800</v>
@@ -1453,25 +1452,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100500</v>
+        <v>100200</v>
       </c>
       <c r="E17" s="3">
+        <v>99700</v>
+      </c>
+      <c r="F17" s="3">
         <v>88900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>75800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>69900</v>
       </c>
       <c r="K17" s="3">
         <v>74900</v>
@@ -1542,22 +1541,22 @@
         <v>6600</v>
       </c>
       <c r="E18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8100</v>
       </c>
       <c r="K18" s="3">
         <v>8700</v>
@@ -1660,22 +1659,22 @@
         <v>-4400</v>
       </c>
       <c r="E20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-2400</v>
@@ -1831,23 +1830,23 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>2700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1921,19 +1920,19 @@
         <v>2700</v>
       </c>
       <c r="F23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5300</v>
       </c>
       <c r="K23" s="3">
         <v>6300</v>
@@ -2004,19 +2003,19 @@
         <v>1800</v>
       </c>
       <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1300</v>
       </c>
       <c r="J24" s="3">
         <v>1300</v>
@@ -2176,22 +2175,22 @@
         <v>400</v>
       </c>
       <c r="E26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>4000</v>
       </c>
       <c r="K26" s="3">
         <v>10400</v>
@@ -2262,22 +2261,22 @@
         <v>400</v>
       </c>
       <c r="E27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>4000</v>
       </c>
       <c r="K27" s="3">
         <v>10400</v>
@@ -2692,22 +2691,22 @@
         <v>4400</v>
       </c>
       <c r="E32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>2400</v>
@@ -2778,22 +2777,22 @@
         <v>400</v>
       </c>
       <c r="E33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>4000</v>
       </c>
       <c r="K33" s="3">
         <v>10400</v>
@@ -2950,22 +2949,22 @@
         <v>400</v>
       </c>
       <c r="E35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>4000</v>
       </c>
       <c r="K35" s="3">
         <v>10400</v>
@@ -3041,22 +3040,22 @@
         <v>45016</v>
       </c>
       <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44377</v>
       </c>
       <c r="K38" s="2">
         <v>44286</v>
@@ -3188,22 +3187,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -3360,22 +3359,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E43" s="3">
         <v>195100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>170600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>171500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>117600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>133900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3446,22 +3445,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E44" s="3">
         <v>38700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3532,22 +3531,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E45" s="3">
         <v>28100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3618,22 +3617,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E46" s="3">
         <v>279400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>266100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>208100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>215400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3704,22 +3703,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E47" s="3">
         <v>11400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3790,22 +3789,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E48" s="3">
         <v>278100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>255200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>220200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>206000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>192600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3879,19 +3878,19 @@
         <v>7500</v>
       </c>
       <c r="E49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F49" s="3">
         <v>7700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -4134,22 +4133,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E52" s="3">
         <v>48900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -4306,22 +4305,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E54" s="3">
         <v>625300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>569100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>499600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>443300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>431000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -4456,22 +4455,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E57" s="3">
         <v>162600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>137100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>139800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>111500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -4542,22 +4541,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E58" s="3">
         <v>97800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>96400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>86400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>74600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4628,22 +4627,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E59" s="3">
         <v>25400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4714,22 +4713,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>266800</v>
+      </c>
+      <c r="E60" s="3">
         <v>285800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>255200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>249400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>204600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>212500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4800,22 +4799,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>189600</v>
+      </c>
+      <c r="E61" s="3">
         <v>130600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>114700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>65500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>61300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4886,22 +4885,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E62" s="3">
         <v>29400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -5230,22 +5229,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>486700</v>
+      </c>
+      <c r="E66" s="3">
         <v>445800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>394000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>332100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>284100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>288300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -5692,22 +5691,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-81400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-101400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -6036,22 +6035,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E76" s="3">
         <v>179500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>175000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>167500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>159200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>142800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -6216,22 +6215,22 @@
         <v>45016</v>
       </c>
       <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44377</v>
       </c>
       <c r="K80" s="2">
         <v>44286</v>
@@ -6302,22 +6301,22 @@
         <v>400</v>
       </c>
       <c r="E81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>4000</v>
       </c>
       <c r="K81" s="3">
         <v>10400</v>
@@ -6416,26 +6415,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -6932,26 +6931,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -7051,25 +7050,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8736800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4475100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4885700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2488700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2621800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1134200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2111600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -7308,26 +7307,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -7770,26 +7769,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -7856,26 +7855,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -7942,26 +7941,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="92">
   <si>
     <t>SIFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>106800</v>
+        <v>102800</v>
       </c>
       <c r="E8" s="3">
-        <v>107600</v>
+        <v>106300</v>
       </c>
       <c r="F8" s="3">
-        <v>96000</v>
+        <v>107000</v>
       </c>
       <c r="G8" s="3">
-        <v>93500</v>
+        <v>95500</v>
       </c>
       <c r="H8" s="3">
-        <v>82300</v>
+        <v>93100</v>
       </c>
       <c r="I8" s="3">
-        <v>82000</v>
+        <v>81900</v>
       </c>
       <c r="J8" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K8" s="3">
         <v>84500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>75800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>76100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>77600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>72800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>85100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>73400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>68000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>65900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>72100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>63900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>60500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69100</v>
+        <v>64600</v>
       </c>
       <c r="E9" s="3">
-        <v>69700</v>
+        <v>68700</v>
       </c>
       <c r="F9" s="3">
-        <v>60300</v>
+        <v>69400</v>
       </c>
       <c r="G9" s="3">
-        <v>118700</v>
+        <v>60000</v>
       </c>
       <c r="H9" s="3">
-        <v>49300</v>
+        <v>118100</v>
       </c>
       <c r="I9" s="3">
-        <v>47500</v>
+        <v>49000</v>
       </c>
       <c r="J9" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K9" s="3">
         <v>50000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>81100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>39900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>57500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>48700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>43100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>40600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>46800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>41400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>38400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37700</v>
+        <v>38200</v>
       </c>
       <c r="E10" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="F10" s="3">
-        <v>35700</v>
+        <v>37600</v>
       </c>
       <c r="G10" s="3">
-        <v>-25200</v>
+        <v>35500</v>
       </c>
       <c r="H10" s="3">
-        <v>33000</v>
+        <v>-25100</v>
       </c>
       <c r="I10" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K10" s="3">
         <v>34500</v>
       </c>
-      <c r="J10" s="3">
-        <v>34500</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-12400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-22400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24900</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>25300</v>
       </c>
       <c r="AA10" s="3">
         <v>25300</v>
       </c>
       <c r="AB10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="AC10" s="3">
         <v>22400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>22100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1262,15 +1282,15 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1283,8 +1303,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1331,94 +1351,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="E15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F15" s="3">
         <v>12000</v>
       </c>
-      <c r="F15" s="3">
-        <v>11600</v>
-      </c>
       <c r="G15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H15" s="3">
         <v>11200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>8600</v>
       </c>
       <c r="N15" s="3">
         <v>8600</v>
       </c>
       <c r="O15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>6700</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>6100</v>
       </c>
       <c r="AB15" s="3">
         <v>6100</v>
       </c>
       <c r="AC15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AD15" s="3">
         <v>6000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100200</v>
+        <v>95400</v>
       </c>
       <c r="E17" s="3">
         <v>99700</v>
       </c>
       <c r="F17" s="3">
-        <v>88900</v>
+        <v>99200</v>
       </c>
       <c r="G17" s="3">
-        <v>85400</v>
+        <v>88500</v>
       </c>
       <c r="H17" s="3">
-        <v>73400</v>
+        <v>85000</v>
       </c>
       <c r="I17" s="3">
-        <v>72900</v>
+        <v>73000</v>
       </c>
       <c r="J17" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K17" s="3">
         <v>75800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>71800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>60300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>79500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>68500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>64100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>62000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>65300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>59900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>57200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="G18" s="3">
-        <v>8200</v>
-      </c>
       <c r="H18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I18" s="3">
         <v>8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4900</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>3900</v>
       </c>
       <c r="Z18" s="3">
         <v>3900</v>
       </c>
       <c r="AA18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AB18" s="3">
         <v>6900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,94 +1683,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>900</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="S20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
-        <v>900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,220 +1873,226 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>2100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="3">
         <v>1100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2700</v>
       </c>
       <c r="F23" s="3">
         <v>2700</v>
       </c>
       <c r="G23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H23" s="3">
         <v>4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5700</v>
       </c>
-      <c r="I23" s="3">
-        <v>5800</v>
-      </c>
       <c r="J23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -2071,17 +2117,20 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
-        <v>1400</v>
-      </c>
       <c r="G26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="J26" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>4200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>2500</v>
       </c>
       <c r="AA26" s="3">
         <v>2500</v>
       </c>
       <c r="AB26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC26" s="3">
         <v>2400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
-        <v>1400</v>
-      </c>
       <c r="G27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>4200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>2500</v>
       </c>
       <c r="AA27" s="3">
         <v>2500</v>
       </c>
       <c r="AB27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC27" s="3">
         <v>2400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="S32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="V32" s="3">
+        <v>200</v>
+      </c>
+      <c r="W32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>4300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1500</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
-        <v>1400</v>
-      </c>
       <c r="G33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>4200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>2500</v>
       </c>
       <c r="AA33" s="3">
         <v>2500</v>
       </c>
       <c r="AB33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC33" s="3">
         <v>2400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
-        <v>1400</v>
-      </c>
       <c r="G35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>2500</v>
       </c>
       <c r="AA35" s="3">
         <v>2500</v>
       </c>
       <c r="AB35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC35" s="3">
         <v>2400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,28 +3267,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>44100</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>17500</v>
+        <v>43900</v>
       </c>
       <c r="F41" s="3">
-        <v>45700</v>
+        <v>17400</v>
       </c>
       <c r="G41" s="3">
-        <v>23600</v>
+        <v>45500</v>
       </c>
       <c r="H41" s="3">
-        <v>61700</v>
+        <v>23500</v>
       </c>
       <c r="I41" s="3">
-        <v>47000</v>
+        <v>61400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -3219,42 +3306,42 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>30900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>13900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>26200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>15800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="3">
         <v>28000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3">
         <v>29500</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,28 +3443,31 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>177300</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>195100</v>
+        <v>176500</v>
       </c>
       <c r="F43" s="3">
+        <v>194200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>169800</v>
+      </c>
+      <c r="H43" s="3">
         <v>170600</v>
       </c>
-      <c r="G43" s="3">
-        <v>171500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>117600</v>
-      </c>
       <c r="I43" s="3">
-        <v>133900</v>
+        <v>117000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3391,42 +3484,42 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>161100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>171300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>171300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>166500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="3">
         <v>150400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="3">
         <v>127100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3439,28 +3532,31 @@
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>23500</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>38700</v>
+        <v>23400</v>
       </c>
       <c r="F44" s="3">
-        <v>29100</v>
+        <v>38500</v>
       </c>
       <c r="G44" s="3">
-        <v>26700</v>
+        <v>29000</v>
       </c>
       <c r="H44" s="3">
-        <v>17100</v>
+        <v>26600</v>
       </c>
       <c r="I44" s="3">
-        <v>22400</v>
+        <v>17000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3477,42 +3573,42 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>17400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>17300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>23200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>21200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3">
         <v>9100</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3">
         <v>15600</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3525,29 +3621,32 @@
       <c r="AD44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>24900</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>28100</v>
+        <v>24800</v>
       </c>
       <c r="F45" s="3">
-        <v>20600</v>
+        <v>28000</v>
       </c>
       <c r="G45" s="3">
-        <v>18700</v>
+        <v>20500</v>
       </c>
       <c r="H45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
-        <v>12200</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3563,42 +3662,42 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>12500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>10800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>13700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
         <v>10000</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>8200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3611,28 +3710,31 @@
       <c r="AD45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>269900</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>279400</v>
+        <v>268600</v>
       </c>
       <c r="F46" s="3">
-        <v>266100</v>
+        <v>278000</v>
       </c>
       <c r="G46" s="3">
-        <v>240500</v>
+        <v>264700</v>
       </c>
       <c r="H46" s="3">
-        <v>208100</v>
+        <v>239300</v>
       </c>
       <c r="I46" s="3">
-        <v>215400</v>
+        <v>207000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -3649,42 +3751,42 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>221800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
         <v>214400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>231500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="3">
         <v>217300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X46" s="3">
         <v>197500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="3">
         <v>180400</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3697,29 +3799,32 @@
       <c r="AD46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>12600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11400</v>
       </c>
-      <c r="F47" s="3">
-        <v>5800</v>
-      </c>
       <c r="G47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H47" s="3">
         <v>5500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
-        <v>2500</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3735,42 +3840,42 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>2800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>2700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>2600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>2100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3">
         <v>2000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3783,28 +3888,31 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>338500</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>278100</v>
+        <v>336800</v>
       </c>
       <c r="F48" s="3">
-        <v>255200</v>
+        <v>276700</v>
       </c>
       <c r="G48" s="3">
-        <v>220200</v>
+        <v>253900</v>
       </c>
       <c r="H48" s="3">
-        <v>206000</v>
+        <v>219100</v>
       </c>
       <c r="I48" s="3">
-        <v>192600</v>
+        <v>204900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -3821,42 +3929,42 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>208800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>186600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>116800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>95800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
         <v>101300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>92200</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,29 +3977,32 @@
       <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>7500</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
         <v>7500</v>
       </c>
       <c r="F49" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="G49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H49" s="3">
         <v>9500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8400</v>
       </c>
-      <c r="I49" s="3">
-        <v>7900</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3907,42 +4018,42 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>9100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>9100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>7800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>8100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>8200</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>7800</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,80 +4244,83 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>65500</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>48900</v>
+        <v>65200</v>
       </c>
       <c r="F52" s="3">
+        <v>48700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>34200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
+        <v>46300</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
+        <v>37800</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
         <v>34400</v>
       </c>
-      <c r="G52" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
-        <v>14100</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>18800</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
-        <v>46300</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3">
-        <v>37800</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3">
-        <v>34400</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3">
         <v>33800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,28 +4422,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>694000</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>625300</v>
+        <v>690600</v>
       </c>
       <c r="F54" s="3">
-        <v>569100</v>
+        <v>622200</v>
       </c>
       <c r="G54" s="3">
-        <v>499600</v>
+        <v>566200</v>
       </c>
       <c r="H54" s="3">
-        <v>443300</v>
+        <v>497100</v>
       </c>
       <c r="I54" s="3">
-        <v>431000</v>
+        <v>441100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -4337,42 +4463,42 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>456600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>431500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>405000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>361100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X54" s="3">
         <v>343400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3">
         <v>315500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,28 +4579,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>155300</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>162600</v>
+        <v>154500</v>
       </c>
       <c r="F57" s="3">
-        <v>137100</v>
+        <v>161800</v>
       </c>
       <c r="G57" s="3">
-        <v>139800</v>
+        <v>136400</v>
       </c>
       <c r="H57" s="3">
-        <v>111500</v>
+        <v>139100</v>
       </c>
       <c r="I57" s="3">
-        <v>117200</v>
+        <v>111000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -4487,42 +4618,42 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>121000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>108900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>110300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>110100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3">
         <v>103300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>87000</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4535,28 +4666,31 @@
       <c r="AD57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>87600</v>
+        <v>79200</v>
       </c>
       <c r="E58" s="3">
-        <v>97800</v>
+        <v>87200</v>
       </c>
       <c r="F58" s="3">
-        <v>96400</v>
+        <v>97300</v>
       </c>
       <c r="G58" s="3">
-        <v>86400</v>
+        <v>95900</v>
       </c>
       <c r="H58" s="3">
-        <v>76400</v>
+        <v>86000</v>
       </c>
       <c r="I58" s="3">
-        <v>74600</v>
+        <v>76000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4573,42 +4707,42 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>79400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>70000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>67000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>56900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>51700</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>58700</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4621,28 +4755,31 @@
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>23800</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="F59" s="3">
-        <v>21700</v>
+        <v>25300</v>
       </c>
       <c r="G59" s="3">
-        <v>23200</v>
+        <v>21600</v>
       </c>
       <c r="H59" s="3">
-        <v>16700</v>
+        <v>23100</v>
       </c>
       <c r="I59" s="3">
-        <v>20700</v>
+        <v>16600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -4659,42 +4796,42 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>19600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>24900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>18000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>23500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>16500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>14800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4707,28 +4844,31 @@
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>266800</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>285800</v>
+        <v>265400</v>
       </c>
       <c r="F60" s="3">
-        <v>255200</v>
+        <v>284400</v>
       </c>
       <c r="G60" s="3">
-        <v>249400</v>
+        <v>253900</v>
       </c>
       <c r="H60" s="3">
-        <v>204600</v>
+        <v>248200</v>
       </c>
       <c r="I60" s="3">
-        <v>212500</v>
+        <v>203600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -4745,42 +4885,42 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>219900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3">
         <v>203800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>195300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V60" s="3">
         <v>190400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3">
         <v>171500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="3">
         <v>160400</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4793,28 +4933,31 @@
       <c r="AD60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>189600</v>
+        <v>179200</v>
       </c>
       <c r="E61" s="3">
-        <v>130600</v>
+        <v>188700</v>
       </c>
       <c r="F61" s="3">
-        <v>114700</v>
+        <v>130000</v>
       </c>
       <c r="G61" s="3">
-        <v>62600</v>
+        <v>114100</v>
       </c>
       <c r="H61" s="3">
-        <v>65500</v>
+        <v>62300</v>
       </c>
       <c r="I61" s="3">
-        <v>61300</v>
+        <v>65100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4832,41 +4975,41 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>69500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>65700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>45400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>30400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>29600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>24300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4879,29 +5022,32 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>30300</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>29400</v>
+        <v>30200</v>
       </c>
       <c r="F62" s="3">
-        <v>24200</v>
+        <v>29200</v>
       </c>
       <c r="G62" s="3">
-        <v>20100</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
-        <v>14400</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4917,42 +5063,42 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>14300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>18500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>17700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>15900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3">
         <v>12300</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,28 +5378,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>486700</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>445800</v>
+        <v>484300</v>
       </c>
       <c r="F66" s="3">
-        <v>394000</v>
+        <v>443600</v>
       </c>
       <c r="G66" s="3">
-        <v>332100</v>
+        <v>392100</v>
       </c>
       <c r="H66" s="3">
-        <v>284100</v>
+        <v>330400</v>
       </c>
       <c r="I66" s="3">
-        <v>288300</v>
+        <v>282700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -5261,42 +5419,42 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>305300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>283900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>259200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>238500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="3">
         <v>217000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3">
         <v>197000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,28 +5856,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-53600</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-81400</v>
+        <v>-53300</v>
       </c>
       <c r="F72" s="3">
-        <v>-86100</v>
+        <v>-80900</v>
       </c>
       <c r="G72" s="3">
-        <v>-93100</v>
+        <v>-85600</v>
       </c>
       <c r="H72" s="3">
-        <v>-101400</v>
+        <v>-92600</v>
       </c>
       <c r="I72" s="3">
-        <v>-114200</v>
+        <v>-100900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -5723,42 +5897,42 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-132000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>-137700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-141100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>-146000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="3">
         <v>-157800</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-165500</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,28 +6212,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>207300</v>
+        <v>207000</v>
       </c>
       <c r="E76" s="3">
-        <v>179500</v>
+        <v>206300</v>
       </c>
       <c r="F76" s="3">
-        <v>175000</v>
+        <v>178600</v>
       </c>
       <c r="G76" s="3">
-        <v>167500</v>
+        <v>174100</v>
       </c>
       <c r="H76" s="3">
-        <v>159200</v>
+        <v>166700</v>
       </c>
       <c r="I76" s="3">
-        <v>142800</v>
+        <v>158400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -6067,42 +6253,42 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>151300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>147600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>145800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>122500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X76" s="3">
         <v>126400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3">
         <v>118600</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
-        <v>1400</v>
-      </c>
       <c r="G81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>4200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>2500</v>
       </c>
       <c r="AA81" s="3">
         <v>2500</v>
       </c>
       <c r="AB81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC81" s="3">
         <v>2400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,43 +6608,44 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
@@ -6454,8 +6653,8 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,43 +7140,46 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
@@ -6970,8 +7187,8 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7068,19 +7289,19 @@
         <v>-1134200</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2111600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -7088,8 +7309,8 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,43 +7529,46 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -7346,8 +7576,8 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,43 +8007,46 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
@@ -7808,8 +8054,8 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7850,43 +8096,46 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
@@ -7894,8 +8143,8 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -7936,43 +8185,46 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
@@ -7980,8 +8232,8 @@
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
